--- a/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/Servlet/SearchResultServlet_クラス仕様書.xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/Servlet/SearchResultServlet_クラス仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02D658F-A4DF-4E55-8604-8BDA4FCF683C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AAF932-0BA8-496B-A51D-96D2EE060DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1740" yWindow="7884" windowWidth="15744" windowHeight="7884" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -1477,29 +1477,29 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1880,7 +1880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -1904,71 +1904,71 @@
       <c r="J1" s="95"/>
       <c r="K1" s="95"/>
       <c r="L1" s="95"/>
-      <c r="M1" s="91" t="s">
+      <c r="M1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="92" t="s">
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="91" t="s">
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="92" t="s">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="92"/>
-      <c r="AK1" s="92"/>
-      <c r="AL1" s="92"/>
-      <c r="AM1" s="92"/>
-      <c r="AN1" s="92"/>
-      <c r="AO1" s="92"/>
-      <c r="AP1" s="92"/>
-      <c r="AQ1" s="91" t="s">
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="92" t="s">
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="92"/>
-      <c r="AV1" s="92"/>
-      <c r="AW1" s="92"/>
-      <c r="AX1" s="92"/>
-      <c r="AY1" s="92"/>
-      <c r="AZ1" s="92"/>
-      <c r="BA1" s="91" t="s">
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BA1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="91"/>
-      <c r="BC1" s="91"/>
-      <c r="BD1" s="93">
+      <c r="BB1" s="97"/>
+      <c r="BC1" s="97"/>
+      <c r="BD1" s="94">
         <v>45554</v>
       </c>
-      <c r="BE1" s="93"/>
-      <c r="BF1" s="93"/>
-      <c r="BG1" s="93"/>
-      <c r="BH1" s="93"/>
-      <c r="BI1" s="93"/>
+      <c r="BE1" s="94"/>
+      <c r="BF1" s="94"/>
+      <c r="BG1" s="94"/>
+      <c r="BH1" s="94"/>
+      <c r="BI1" s="94"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -2180,66 +2180,66 @@
       <c r="J2" s="95"/>
       <c r="K2" s="95"/>
       <c r="L2" s="95"/>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="91" t="s">
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="92" t="str">
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="96" t="str">
         <f>クラス仕様!G5</f>
         <v>SerchResultServlet</v>
       </c>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="91" t="s">
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="92"/>
-      <c r="AU2" s="92"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="92"/>
-      <c r="AY2" s="92"/>
-      <c r="AZ2" s="92"/>
-      <c r="BA2" s="91" t="s">
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="91"/>
-      <c r="BC2" s="91"/>
-      <c r="BD2" s="93"/>
-      <c r="BE2" s="93"/>
-      <c r="BF2" s="93"/>
-      <c r="BG2" s="93"/>
-      <c r="BH2" s="93"/>
-      <c r="BI2" s="93"/>
+      <c r="BB2" s="97"/>
+      <c r="BC2" s="97"/>
+      <c r="BD2" s="94"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="94"/>
+      <c r="BG2" s="94"/>
+      <c r="BH2" s="94"/>
+      <c r="BI2" s="94"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -2439,1116 +2439,1146 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="98"/>
-      <c r="AT4" s="98"/>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="98"/>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="98"/>
-      <c r="BA4" s="98"/>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="98"/>
-      <c r="BE4" s="98"/>
-      <c r="BF4" s="98"/>
-      <c r="BG4" s="98"/>
-      <c r="BH4" s="98"/>
-      <c r="BI4" s="98"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="92"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98" t="s">
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="98"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="98"/>
-      <c r="AP5" s="98"/>
-      <c r="AQ5" s="98"/>
-      <c r="AR5" s="98"/>
-      <c r="AS5" s="98"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="98"/>
-      <c r="AV5" s="98"/>
-      <c r="AW5" s="98"/>
-      <c r="AX5" s="98"/>
-      <c r="AY5" s="98"/>
-      <c r="AZ5" s="98"/>
-      <c r="BA5" s="98"/>
-      <c r="BB5" s="98"/>
-      <c r="BC5" s="98"/>
-      <c r="BD5" s="98"/>
-      <c r="BE5" s="98"/>
-      <c r="BF5" s="98"/>
-      <c r="BG5" s="98"/>
-      <c r="BH5" s="98"/>
-      <c r="BI5" s="98"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="92"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="92"/>
+      <c r="AL5" s="92"/>
+      <c r="AM5" s="92"/>
+      <c r="AN5" s="92"/>
+      <c r="AO5" s="92"/>
+      <c r="AP5" s="92"/>
+      <c r="AQ5" s="92"/>
+      <c r="AR5" s="92"/>
+      <c r="AS5" s="92"/>
+      <c r="AT5" s="92"/>
+      <c r="AU5" s="92"/>
+      <c r="AV5" s="92"/>
+      <c r="AW5" s="92"/>
+      <c r="AX5" s="92"/>
+      <c r="AY5" s="92"/>
+      <c r="AZ5" s="92"/>
+      <c r="BA5" s="92"/>
+      <c r="BB5" s="92"/>
+      <c r="BC5" s="92"/>
+      <c r="BD5" s="92"/>
+      <c r="BE5" s="92"/>
+      <c r="BF5" s="92"/>
+      <c r="BG5" s="92"/>
+      <c r="BH5" s="92"/>
+      <c r="BI5" s="92"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="97" t="s">
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="97"/>
-      <c r="AH6" s="97"/>
-      <c r="AI6" s="97"/>
-      <c r="AJ6" s="98" t="s">
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="98"/>
-      <c r="AP6" s="98"/>
-      <c r="AQ6" s="98"/>
-      <c r="AR6" s="98"/>
-      <c r="AS6" s="98"/>
-      <c r="AT6" s="98"/>
-      <c r="AU6" s="98"/>
-      <c r="AV6" s="98"/>
-      <c r="AW6" s="98"/>
-      <c r="AX6" s="98"/>
-      <c r="AY6" s="98"/>
-      <c r="AZ6" s="98"/>
-      <c r="BA6" s="98"/>
-      <c r="BB6" s="98"/>
-      <c r="BC6" s="98"/>
-      <c r="BD6" s="98"/>
-      <c r="BE6" s="98"/>
-      <c r="BF6" s="98"/>
-      <c r="BG6" s="98"/>
-      <c r="BH6" s="98"/>
-      <c r="BI6" s="98"/>
+      <c r="AK6" s="92"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="92"/>
+      <c r="AQ6" s="92"/>
+      <c r="AR6" s="92"/>
+      <c r="AS6" s="92"/>
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="92"/>
+      <c r="AV6" s="92"/>
+      <c r="AW6" s="92"/>
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="92"/>
+      <c r="AZ6" s="92"/>
+      <c r="BA6" s="92"/>
+      <c r="BB6" s="92"/>
+      <c r="BC6" s="92"/>
+      <c r="BD6" s="92"/>
+      <c r="BE6" s="92"/>
+      <c r="BF6" s="92"/>
+      <c r="BG6" s="92"/>
+      <c r="BH6" s="92"/>
+      <c r="BI6" s="92"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="97"/>
-      <c r="U8" s="97" t="s">
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="97"/>
-      <c r="W8" s="97"/>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="97"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="97"/>
-      <c r="AC8" s="97"/>
-      <c r="AD8" s="97"/>
-      <c r="AE8" s="97" t="s">
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="AF8" s="97"/>
-      <c r="AG8" s="97"/>
-      <c r="AH8" s="97"/>
-      <c r="AI8" s="97"/>
-      <c r="AJ8" s="97"/>
-      <c r="AK8" s="97"/>
-      <c r="AL8" s="97"/>
-      <c r="AM8" s="97"/>
-      <c r="AN8" s="97"/>
-      <c r="AO8" s="97" t="s">
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="93"/>
+      <c r="AO8" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="AP8" s="97"/>
-      <c r="AQ8" s="97"/>
-      <c r="AR8" s="97"/>
-      <c r="AS8" s="97"/>
-      <c r="AT8" s="97"/>
-      <c r="AU8" s="97"/>
-      <c r="AV8" s="97"/>
-      <c r="AW8" s="97"/>
-      <c r="AX8" s="97"/>
-      <c r="AY8" s="97"/>
-      <c r="AZ8" s="97"/>
-      <c r="BA8" s="97"/>
-      <c r="BB8" s="97"/>
-      <c r="BC8" s="97"/>
-      <c r="BD8" s="97"/>
-      <c r="BE8" s="97"/>
-      <c r="BF8" s="97"/>
-      <c r="BG8" s="97"/>
-      <c r="BH8" s="97"/>
-      <c r="BI8" s="97"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="93"/>
+      <c r="AW8" s="93"/>
+      <c r="AX8" s="93"/>
+      <c r="AY8" s="93"/>
+      <c r="AZ8" s="93"/>
+      <c r="BA8" s="93"/>
+      <c r="BB8" s="93"/>
+      <c r="BC8" s="93"/>
+      <c r="BD8" s="93"/>
+      <c r="BE8" s="93"/>
+      <c r="BF8" s="93"/>
+      <c r="BG8" s="93"/>
+      <c r="BH8" s="93"/>
+      <c r="BI8" s="93"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="94"/>
-      <c r="AE9" s="94"/>
-      <c r="AF9" s="94"/>
-      <c r="AG9" s="94"/>
-      <c r="AH9" s="94"/>
-      <c r="AI9" s="94"/>
-      <c r="AJ9" s="94"/>
-      <c r="AK9" s="94"/>
-      <c r="AL9" s="94"/>
-      <c r="AM9" s="94"/>
-      <c r="AN9" s="94"/>
-      <c r="AO9" s="94"/>
-      <c r="AP9" s="94"/>
-      <c r="AQ9" s="94"/>
-      <c r="AR9" s="94"/>
-      <c r="AS9" s="94"/>
-      <c r="AT9" s="94"/>
-      <c r="AU9" s="94"/>
-      <c r="AV9" s="94"/>
-      <c r="AW9" s="94"/>
-      <c r="AX9" s="94"/>
-      <c r="AY9" s="94"/>
-      <c r="AZ9" s="94"/>
-      <c r="BA9" s="94"/>
-      <c r="BB9" s="94"/>
-      <c r="BC9" s="94"/>
-      <c r="BD9" s="94"/>
-      <c r="BE9" s="94"/>
-      <c r="BF9" s="94"/>
-      <c r="BG9" s="94"/>
-      <c r="BH9" s="94"/>
-      <c r="BI9" s="94"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="91"/>
+      <c r="AN9" s="91"/>
+      <c r="AO9" s="91"/>
+      <c r="AP9" s="91"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="91"/>
+      <c r="AS9" s="91"/>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="91"/>
+      <c r="AX9" s="91"/>
+      <c r="AY9" s="91"/>
+      <c r="AZ9" s="91"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="91"/>
+      <c r="BC9" s="91"/>
+      <c r="BD9" s="91"/>
+      <c r="BE9" s="91"/>
+      <c r="BF9" s="91"/>
+      <c r="BG9" s="91"/>
+      <c r="BH9" s="91"/>
+      <c r="BI9" s="91"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="94"/>
-      <c r="AE10" s="94"/>
-      <c r="AF10" s="94"/>
-      <c r="AG10" s="94"/>
-      <c r="AH10" s="94"/>
-      <c r="AI10" s="94"/>
-      <c r="AJ10" s="94"/>
-      <c r="AK10" s="94"/>
-      <c r="AL10" s="94"/>
-      <c r="AM10" s="94"/>
-      <c r="AN10" s="94"/>
-      <c r="AO10" s="94"/>
-      <c r="AP10" s="94"/>
-      <c r="AQ10" s="94"/>
-      <c r="AR10" s="94"/>
-      <c r="AS10" s="94"/>
-      <c r="AT10" s="94"/>
-      <c r="AU10" s="94"/>
-      <c r="AV10" s="94"/>
-      <c r="AW10" s="94"/>
-      <c r="AX10" s="94"/>
-      <c r="AY10" s="94"/>
-      <c r="AZ10" s="94"/>
-      <c r="BA10" s="94"/>
-      <c r="BB10" s="94"/>
-      <c r="BC10" s="94"/>
-      <c r="BD10" s="94"/>
-      <c r="BE10" s="94"/>
-      <c r="BF10" s="94"/>
-      <c r="BG10" s="94"/>
-      <c r="BH10" s="94"/>
-      <c r="BI10" s="94"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="91"/>
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="91"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="91"/>
+      <c r="AK10" s="91"/>
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="91"/>
+      <c r="AN10" s="91"/>
+      <c r="AO10" s="91"/>
+      <c r="AP10" s="91"/>
+      <c r="AQ10" s="91"/>
+      <c r="AR10" s="91"/>
+      <c r="AS10" s="91"/>
+      <c r="AT10" s="91"/>
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="91"/>
+      <c r="AY10" s="91"/>
+      <c r="AZ10" s="91"/>
+      <c r="BA10" s="91"/>
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="91"/>
+      <c r="BD10" s="91"/>
+      <c r="BE10" s="91"/>
+      <c r="BF10" s="91"/>
+      <c r="BG10" s="91"/>
+      <c r="BH10" s="91"/>
+      <c r="BI10" s="91"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="94"/>
-      <c r="AI11" s="94"/>
-      <c r="AJ11" s="94"/>
-      <c r="AK11" s="94"/>
-      <c r="AL11" s="94"/>
-      <c r="AM11" s="94"/>
-      <c r="AN11" s="94"/>
-      <c r="AO11" s="94"/>
-      <c r="AP11" s="94"/>
-      <c r="AQ11" s="94"/>
-      <c r="AR11" s="94"/>
-      <c r="AS11" s="94"/>
-      <c r="AT11" s="94"/>
-      <c r="AU11" s="94"/>
-      <c r="AV11" s="94"/>
-      <c r="AW11" s="94"/>
-      <c r="AX11" s="94"/>
-      <c r="AY11" s="94"/>
-      <c r="AZ11" s="94"/>
-      <c r="BA11" s="94"/>
-      <c r="BB11" s="94"/>
-      <c r="BC11" s="94"/>
-      <c r="BD11" s="94"/>
-      <c r="BE11" s="94"/>
-      <c r="BF11" s="94"/>
-      <c r="BG11" s="94"/>
-      <c r="BH11" s="94"/>
-      <c r="BI11" s="94"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="91"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="91"/>
+      <c r="AI11" s="91"/>
+      <c r="AJ11" s="91"/>
+      <c r="AK11" s="91"/>
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="91"/>
+      <c r="AN11" s="91"/>
+      <c r="AO11" s="91"/>
+      <c r="AP11" s="91"/>
+      <c r="AQ11" s="91"/>
+      <c r="AR11" s="91"/>
+      <c r="AS11" s="91"/>
+      <c r="AT11" s="91"/>
+      <c r="AU11" s="91"/>
+      <c r="AV11" s="91"/>
+      <c r="AW11" s="91"/>
+      <c r="AX11" s="91"/>
+      <c r="AY11" s="91"/>
+      <c r="AZ11" s="91"/>
+      <c r="BA11" s="91"/>
+      <c r="BB11" s="91"/>
+      <c r="BC11" s="91"/>
+      <c r="BD11" s="91"/>
+      <c r="BE11" s="91"/>
+      <c r="BF11" s="91"/>
+      <c r="BG11" s="91"/>
+      <c r="BH11" s="91"/>
+      <c r="BI11" s="91"/>
     </row>
     <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="94"/>
-      <c r="AG12" s="94"/>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="94"/>
-      <c r="AJ12" s="94"/>
-      <c r="AK12" s="94"/>
-      <c r="AL12" s="94"/>
-      <c r="AM12" s="94"/>
-      <c r="AN12" s="94"/>
-      <c r="AO12" s="94"/>
-      <c r="AP12" s="94"/>
-      <c r="AQ12" s="94"/>
-      <c r="AR12" s="94"/>
-      <c r="AS12" s="94"/>
-      <c r="AT12" s="94"/>
-      <c r="AU12" s="94"/>
-      <c r="AV12" s="94"/>
-      <c r="AW12" s="94"/>
-      <c r="AX12" s="94"/>
-      <c r="AY12" s="94"/>
-      <c r="AZ12" s="94"/>
-      <c r="BA12" s="94"/>
-      <c r="BB12" s="94"/>
-      <c r="BC12" s="94"/>
-      <c r="BD12" s="94"/>
-      <c r="BE12" s="94"/>
-      <c r="BF12" s="94"/>
-      <c r="BG12" s="94"/>
-      <c r="BH12" s="94"/>
-      <c r="BI12" s="94"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="91"/>
+      <c r="AE12" s="91"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="91"/>
+      <c r="AH12" s="91"/>
+      <c r="AI12" s="91"/>
+      <c r="AJ12" s="91"/>
+      <c r="AK12" s="91"/>
+      <c r="AL12" s="91"/>
+      <c r="AM12" s="91"/>
+      <c r="AN12" s="91"/>
+      <c r="AO12" s="91"/>
+      <c r="AP12" s="91"/>
+      <c r="AQ12" s="91"/>
+      <c r="AR12" s="91"/>
+      <c r="AS12" s="91"/>
+      <c r="AT12" s="91"/>
+      <c r="AU12" s="91"/>
+      <c r="AV12" s="91"/>
+      <c r="AW12" s="91"/>
+      <c r="AX12" s="91"/>
+      <c r="AY12" s="91"/>
+      <c r="AZ12" s="91"/>
+      <c r="BA12" s="91"/>
+      <c r="BB12" s="91"/>
+      <c r="BC12" s="91"/>
+      <c r="BD12" s="91"/>
+      <c r="BE12" s="91"/>
+      <c r="BF12" s="91"/>
+      <c r="BG12" s="91"/>
+      <c r="BH12" s="91"/>
+      <c r="BI12" s="91"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="94"/>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="94"/>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="94"/>
-      <c r="AI13" s="94"/>
-      <c r="AJ13" s="94"/>
-      <c r="AK13" s="94"/>
-      <c r="AL13" s="94"/>
-      <c r="AM13" s="94"/>
-      <c r="AN13" s="94"/>
-      <c r="AO13" s="94"/>
-      <c r="AP13" s="94"/>
-      <c r="AQ13" s="94"/>
-      <c r="AR13" s="94"/>
-      <c r="AS13" s="94"/>
-      <c r="AT13" s="94"/>
-      <c r="AU13" s="94"/>
-      <c r="AV13" s="94"/>
-      <c r="AW13" s="94"/>
-      <c r="AX13" s="94"/>
-      <c r="AY13" s="94"/>
-      <c r="AZ13" s="94"/>
-      <c r="BA13" s="94"/>
-      <c r="BB13" s="94"/>
-      <c r="BC13" s="94"/>
-      <c r="BD13" s="94"/>
-      <c r="BE13" s="94"/>
-      <c r="BF13" s="94"/>
-      <c r="BG13" s="94"/>
-      <c r="BH13" s="94"/>
-      <c r="BI13" s="94"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="91"/>
+      <c r="AE13" s="91"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="91"/>
+      <c r="AH13" s="91"/>
+      <c r="AI13" s="91"/>
+      <c r="AJ13" s="91"/>
+      <c r="AK13" s="91"/>
+      <c r="AL13" s="91"/>
+      <c r="AM13" s="91"/>
+      <c r="AN13" s="91"/>
+      <c r="AO13" s="91"/>
+      <c r="AP13" s="91"/>
+      <c r="AQ13" s="91"/>
+      <c r="AR13" s="91"/>
+      <c r="AS13" s="91"/>
+      <c r="AT13" s="91"/>
+      <c r="AU13" s="91"/>
+      <c r="AV13" s="91"/>
+      <c r="AW13" s="91"/>
+      <c r="AX13" s="91"/>
+      <c r="AY13" s="91"/>
+      <c r="AZ13" s="91"/>
+      <c r="BA13" s="91"/>
+      <c r="BB13" s="91"/>
+      <c r="BC13" s="91"/>
+      <c r="BD13" s="91"/>
+      <c r="BE13" s="91"/>
+      <c r="BF13" s="91"/>
+      <c r="BG13" s="91"/>
+      <c r="BH13" s="91"/>
+      <c r="BI13" s="91"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="94"/>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="94"/>
-      <c r="AL14" s="94"/>
-      <c r="AM14" s="94"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="94"/>
-      <c r="AP14" s="94"/>
-      <c r="AQ14" s="94"/>
-      <c r="AR14" s="94"/>
-      <c r="AS14" s="94"/>
-      <c r="AT14" s="94"/>
-      <c r="AU14" s="94"/>
-      <c r="AV14" s="94"/>
-      <c r="AW14" s="94"/>
-      <c r="AX14" s="94"/>
-      <c r="AY14" s="94"/>
-      <c r="AZ14" s="94"/>
-      <c r="BA14" s="94"/>
-      <c r="BB14" s="94"/>
-      <c r="BC14" s="94"/>
-      <c r="BD14" s="94"/>
-      <c r="BE14" s="94"/>
-      <c r="BF14" s="94"/>
-      <c r="BG14" s="94"/>
-      <c r="BH14" s="94"/>
-      <c r="BI14" s="94"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="91"/>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="91"/>
+      <c r="AH14" s="91"/>
+      <c r="AI14" s="91"/>
+      <c r="AJ14" s="91"/>
+      <c r="AK14" s="91"/>
+      <c r="AL14" s="91"/>
+      <c r="AM14" s="91"/>
+      <c r="AN14" s="91"/>
+      <c r="AO14" s="91"/>
+      <c r="AP14" s="91"/>
+      <c r="AQ14" s="91"/>
+      <c r="AR14" s="91"/>
+      <c r="AS14" s="91"/>
+      <c r="AT14" s="91"/>
+      <c r="AU14" s="91"/>
+      <c r="AV14" s="91"/>
+      <c r="AW14" s="91"/>
+      <c r="AX14" s="91"/>
+      <c r="AY14" s="91"/>
+      <c r="AZ14" s="91"/>
+      <c r="BA14" s="91"/>
+      <c r="BB14" s="91"/>
+      <c r="BC14" s="91"/>
+      <c r="BD14" s="91"/>
+      <c r="BE14" s="91"/>
+      <c r="BF14" s="91"/>
+      <c r="BG14" s="91"/>
+      <c r="BH14" s="91"/>
+      <c r="BI14" s="91"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="97"/>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="97"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="97"/>
-      <c r="AL16" s="97"/>
-      <c r="AM16" s="97"/>
-      <c r="AN16" s="97"/>
-      <c r="AO16" s="97"/>
-      <c r="AP16" s="97"/>
-      <c r="AQ16" s="97"/>
-      <c r="AR16" s="97"/>
-      <c r="AS16" s="97"/>
-      <c r="AT16" s="97"/>
-      <c r="AU16" s="97"/>
-      <c r="AV16" s="97"/>
-      <c r="AW16" s="97"/>
-      <c r="AX16" s="97"/>
-      <c r="AY16" s="97"/>
-      <c r="AZ16" s="97"/>
-      <c r="BA16" s="97"/>
-      <c r="BB16" s="97"/>
-      <c r="BC16" s="97"/>
-      <c r="BD16" s="97"/>
-      <c r="BE16" s="97"/>
-      <c r="BF16" s="97"/>
-      <c r="BG16" s="97"/>
-      <c r="BH16" s="97"/>
-      <c r="BI16" s="97"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="93"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="93"/>
+      <c r="AW16" s="93"/>
+      <c r="AX16" s="93"/>
+      <c r="AY16" s="93"/>
+      <c r="AZ16" s="93"/>
+      <c r="BA16" s="93"/>
+      <c r="BB16" s="93"/>
+      <c r="BC16" s="93"/>
+      <c r="BD16" s="93"/>
+      <c r="BE16" s="93"/>
+      <c r="BF16" s="93"/>
+      <c r="BG16" s="93"/>
+      <c r="BH16" s="93"/>
+      <c r="BI16" s="93"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="94"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="94"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="94"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="94"/>
-      <c r="AH17" s="94"/>
-      <c r="AI17" s="94"/>
-      <c r="AJ17" s="94"/>
-      <c r="AK17" s="94"/>
-      <c r="AL17" s="94"/>
-      <c r="AM17" s="94"/>
-      <c r="AN17" s="94"/>
-      <c r="AO17" s="94"/>
-      <c r="AP17" s="94"/>
-      <c r="AQ17" s="94"/>
-      <c r="AR17" s="94"/>
-      <c r="AS17" s="94"/>
-      <c r="AT17" s="94"/>
-      <c r="AU17" s="94"/>
-      <c r="AV17" s="94"/>
-      <c r="AW17" s="94"/>
-      <c r="AX17" s="94"/>
-      <c r="AY17" s="94"/>
-      <c r="AZ17" s="94"/>
-      <c r="BA17" s="94"/>
-      <c r="BB17" s="94"/>
-      <c r="BC17" s="94"/>
-      <c r="BD17" s="94"/>
-      <c r="BE17" s="94"/>
-      <c r="BF17" s="94"/>
-      <c r="BG17" s="94"/>
-      <c r="BH17" s="94"/>
-      <c r="BI17" s="94"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="91"/>
+      <c r="AD17" s="91"/>
+      <c r="AE17" s="91"/>
+      <c r="AF17" s="91"/>
+      <c r="AG17" s="91"/>
+      <c r="AH17" s="91"/>
+      <c r="AI17" s="91"/>
+      <c r="AJ17" s="91"/>
+      <c r="AK17" s="91"/>
+      <c r="AL17" s="91"/>
+      <c r="AM17" s="91"/>
+      <c r="AN17" s="91"/>
+      <c r="AO17" s="91"/>
+      <c r="AP17" s="91"/>
+      <c r="AQ17" s="91"/>
+      <c r="AR17" s="91"/>
+      <c r="AS17" s="91"/>
+      <c r="AT17" s="91"/>
+      <c r="AU17" s="91"/>
+      <c r="AV17" s="91"/>
+      <c r="AW17" s="91"/>
+      <c r="AX17" s="91"/>
+      <c r="AY17" s="91"/>
+      <c r="AZ17" s="91"/>
+      <c r="BA17" s="91"/>
+      <c r="BB17" s="91"/>
+      <c r="BC17" s="91"/>
+      <c r="BD17" s="91"/>
+      <c r="BE17" s="91"/>
+      <c r="BF17" s="91"/>
+      <c r="BG17" s="91"/>
+      <c r="BH17" s="91"/>
+      <c r="BI17" s="91"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="94"/>
-      <c r="AC18" s="94"/>
-      <c r="AD18" s="94"/>
-      <c r="AE18" s="94"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="94"/>
-      <c r="AI18" s="94"/>
-      <c r="AJ18" s="94"/>
-      <c r="AK18" s="94"/>
-      <c r="AL18" s="94"/>
-      <c r="AM18" s="94"/>
-      <c r="AN18" s="94"/>
-      <c r="AO18" s="94"/>
-      <c r="AP18" s="94"/>
-      <c r="AQ18" s="94"/>
-      <c r="AR18" s="94"/>
-      <c r="AS18" s="94"/>
-      <c r="AT18" s="94"/>
-      <c r="AU18" s="94"/>
-      <c r="AV18" s="94"/>
-      <c r="AW18" s="94"/>
-      <c r="AX18" s="94"/>
-      <c r="AY18" s="94"/>
-      <c r="AZ18" s="94"/>
-      <c r="BA18" s="94"/>
-      <c r="BB18" s="94"/>
-      <c r="BC18" s="94"/>
-      <c r="BD18" s="94"/>
-      <c r="BE18" s="94"/>
-      <c r="BF18" s="94"/>
-      <c r="BG18" s="94"/>
-      <c r="BH18" s="94"/>
-      <c r="BI18" s="94"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="91"/>
+      <c r="AD18" s="91"/>
+      <c r="AE18" s="91"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="91"/>
+      <c r="AH18" s="91"/>
+      <c r="AI18" s="91"/>
+      <c r="AJ18" s="91"/>
+      <c r="AK18" s="91"/>
+      <c r="AL18" s="91"/>
+      <c r="AM18" s="91"/>
+      <c r="AN18" s="91"/>
+      <c r="AO18" s="91"/>
+      <c r="AP18" s="91"/>
+      <c r="AQ18" s="91"/>
+      <c r="AR18" s="91"/>
+      <c r="AS18" s="91"/>
+      <c r="AT18" s="91"/>
+      <c r="AU18" s="91"/>
+      <c r="AV18" s="91"/>
+      <c r="AW18" s="91"/>
+      <c r="AX18" s="91"/>
+      <c r="AY18" s="91"/>
+      <c r="AZ18" s="91"/>
+      <c r="BA18" s="91"/>
+      <c r="BB18" s="91"/>
+      <c r="BC18" s="91"/>
+      <c r="BD18" s="91"/>
+      <c r="BE18" s="91"/>
+      <c r="BF18" s="91"/>
+      <c r="BG18" s="91"/>
+      <c r="BH18" s="91"/>
+      <c r="BI18" s="91"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="94"/>
-      <c r="AJ19" s="94"/>
-      <c r="AK19" s="94"/>
-      <c r="AL19" s="94"/>
-      <c r="AM19" s="94"/>
-      <c r="AN19" s="94"/>
-      <c r="AO19" s="94"/>
-      <c r="AP19" s="94"/>
-      <c r="AQ19" s="94"/>
-      <c r="AR19" s="94"/>
-      <c r="AS19" s="94"/>
-      <c r="AT19" s="94"/>
-      <c r="AU19" s="94"/>
-      <c r="AV19" s="94"/>
-      <c r="AW19" s="94"/>
-      <c r="AX19" s="94"/>
-      <c r="AY19" s="94"/>
-      <c r="AZ19" s="94"/>
-      <c r="BA19" s="94"/>
-      <c r="BB19" s="94"/>
-      <c r="BC19" s="94"/>
-      <c r="BD19" s="94"/>
-      <c r="BE19" s="94"/>
-      <c r="BF19" s="94"/>
-      <c r="BG19" s="94"/>
-      <c r="BH19" s="94"/>
-      <c r="BI19" s="94"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="91"/>
+      <c r="AD19" s="91"/>
+      <c r="AE19" s="91"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="91"/>
+      <c r="AH19" s="91"/>
+      <c r="AI19" s="91"/>
+      <c r="AJ19" s="91"/>
+      <c r="AK19" s="91"/>
+      <c r="AL19" s="91"/>
+      <c r="AM19" s="91"/>
+      <c r="AN19" s="91"/>
+      <c r="AO19" s="91"/>
+      <c r="AP19" s="91"/>
+      <c r="AQ19" s="91"/>
+      <c r="AR19" s="91"/>
+      <c r="AS19" s="91"/>
+      <c r="AT19" s="91"/>
+      <c r="AU19" s="91"/>
+      <c r="AV19" s="91"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="91"/>
+      <c r="AY19" s="91"/>
+      <c r="AZ19" s="91"/>
+      <c r="BA19" s="91"/>
+      <c r="BB19" s="91"/>
+      <c r="BC19" s="91"/>
+      <c r="BD19" s="91"/>
+      <c r="BE19" s="91"/>
+      <c r="BF19" s="91"/>
+      <c r="BG19" s="91"/>
+      <c r="BH19" s="91"/>
+      <c r="BI19" s="91"/>
     </row>
     <row r="20" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="94"/>
-      <c r="AH20" s="94"/>
-      <c r="AI20" s="94"/>
-      <c r="AJ20" s="94"/>
-      <c r="AK20" s="94"/>
-      <c r="AL20" s="94"/>
-      <c r="AM20" s="94"/>
-      <c r="AN20" s="94"/>
-      <c r="AO20" s="94"/>
-      <c r="AP20" s="94"/>
-      <c r="AQ20" s="94"/>
-      <c r="AR20" s="94"/>
-      <c r="AS20" s="94"/>
-      <c r="AT20" s="94"/>
-      <c r="AU20" s="94"/>
-      <c r="AV20" s="94"/>
-      <c r="AW20" s="94"/>
-      <c r="AX20" s="94"/>
-      <c r="AY20" s="94"/>
-      <c r="AZ20" s="94"/>
-      <c r="BA20" s="94"/>
-      <c r="BB20" s="94"/>
-      <c r="BC20" s="94"/>
-      <c r="BD20" s="94"/>
-      <c r="BE20" s="94"/>
-      <c r="BF20" s="94"/>
-      <c r="BG20" s="94"/>
-      <c r="BH20" s="94"/>
-      <c r="BI20" s="94"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="91"/>
+      <c r="AA20" s="91"/>
+      <c r="AB20" s="91"/>
+      <c r="AC20" s="91"/>
+      <c r="AD20" s="91"/>
+      <c r="AE20" s="91"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="91"/>
+      <c r="AH20" s="91"/>
+      <c r="AI20" s="91"/>
+      <c r="AJ20" s="91"/>
+      <c r="AK20" s="91"/>
+      <c r="AL20" s="91"/>
+      <c r="AM20" s="91"/>
+      <c r="AN20" s="91"/>
+      <c r="AO20" s="91"/>
+      <c r="AP20" s="91"/>
+      <c r="AQ20" s="91"/>
+      <c r="AR20" s="91"/>
+      <c r="AS20" s="91"/>
+      <c r="AT20" s="91"/>
+      <c r="AU20" s="91"/>
+      <c r="AV20" s="91"/>
+      <c r="AW20" s="91"/>
+      <c r="AX20" s="91"/>
+      <c r="AY20" s="91"/>
+      <c r="AZ20" s="91"/>
+      <c r="BA20" s="91"/>
+      <c r="BB20" s="91"/>
+      <c r="BC20" s="91"/>
+      <c r="BD20" s="91"/>
+      <c r="BE20" s="91"/>
+      <c r="BF20" s="91"/>
+      <c r="BG20" s="91"/>
+      <c r="BH20" s="91"/>
+      <c r="BI20" s="91"/>
     </row>
     <row r="21" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="94"/>
-      <c r="Z21" s="94"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="94"/>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="94"/>
-      <c r="AE21" s="94"/>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="94"/>
-      <c r="AH21" s="94"/>
-      <c r="AI21" s="94"/>
-      <c r="AJ21" s="94"/>
-      <c r="AK21" s="94"/>
-      <c r="AL21" s="94"/>
-      <c r="AM21" s="94"/>
-      <c r="AN21" s="94"/>
-      <c r="AO21" s="94"/>
-      <c r="AP21" s="94"/>
-      <c r="AQ21" s="94"/>
-      <c r="AR21" s="94"/>
-      <c r="AS21" s="94"/>
-      <c r="AT21" s="94"/>
-      <c r="AU21" s="94"/>
-      <c r="AV21" s="94"/>
-      <c r="AW21" s="94"/>
-      <c r="AX21" s="94"/>
-      <c r="AY21" s="94"/>
-      <c r="AZ21" s="94"/>
-      <c r="BA21" s="94"/>
-      <c r="BB21" s="94"/>
-      <c r="BC21" s="94"/>
-      <c r="BD21" s="94"/>
-      <c r="BE21" s="94"/>
-      <c r="BF21" s="94"/>
-      <c r="BG21" s="94"/>
-      <c r="BH21" s="94"/>
-      <c r="BI21" s="94"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="91"/>
+      <c r="AB21" s="91"/>
+      <c r="AC21" s="91"/>
+      <c r="AD21" s="91"/>
+      <c r="AE21" s="91"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="91"/>
+      <c r="AH21" s="91"/>
+      <c r="AI21" s="91"/>
+      <c r="AJ21" s="91"/>
+      <c r="AK21" s="91"/>
+      <c r="AL21" s="91"/>
+      <c r="AM21" s="91"/>
+      <c r="AN21" s="91"/>
+      <c r="AO21" s="91"/>
+      <c r="AP21" s="91"/>
+      <c r="AQ21" s="91"/>
+      <c r="AR21" s="91"/>
+      <c r="AS21" s="91"/>
+      <c r="AT21" s="91"/>
+      <c r="AU21" s="91"/>
+      <c r="AV21" s="91"/>
+      <c r="AW21" s="91"/>
+      <c r="AX21" s="91"/>
+      <c r="AY21" s="91"/>
+      <c r="AZ21" s="91"/>
+      <c r="BA21" s="91"/>
+      <c r="BB21" s="91"/>
+      <c r="BC21" s="91"/>
+      <c r="BD21" s="91"/>
+      <c r="BE21" s="91"/>
+      <c r="BF21" s="91"/>
+      <c r="BG21" s="91"/>
+      <c r="BH21" s="91"/>
+      <c r="BI21" s="91"/>
     </row>
     <row r="22" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="94"/>
-      <c r="AC22" s="94"/>
-      <c r="AD22" s="94"/>
-      <c r="AE22" s="94"/>
-      <c r="AF22" s="94"/>
-      <c r="AG22" s="94"/>
-      <c r="AH22" s="94"/>
-      <c r="AI22" s="94"/>
-      <c r="AJ22" s="94"/>
-      <c r="AK22" s="94"/>
-      <c r="AL22" s="94"/>
-      <c r="AM22" s="94"/>
-      <c r="AN22" s="94"/>
-      <c r="AO22" s="94"/>
-      <c r="AP22" s="94"/>
-      <c r="AQ22" s="94"/>
-      <c r="AR22" s="94"/>
-      <c r="AS22" s="94"/>
-      <c r="AT22" s="94"/>
-      <c r="AU22" s="94"/>
-      <c r="AV22" s="94"/>
-      <c r="AW22" s="94"/>
-      <c r="AX22" s="94"/>
-      <c r="AY22" s="94"/>
-      <c r="AZ22" s="94"/>
-      <c r="BA22" s="94"/>
-      <c r="BB22" s="94"/>
-      <c r="BC22" s="94"/>
-      <c r="BD22" s="94"/>
-      <c r="BE22" s="94"/>
-      <c r="BF22" s="94"/>
-      <c r="BG22" s="94"/>
-      <c r="BH22" s="94"/>
-      <c r="BI22" s="94"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="91"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="91"/>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="91"/>
+      <c r="AC22" s="91"/>
+      <c r="AD22" s="91"/>
+      <c r="AE22" s="91"/>
+      <c r="AF22" s="91"/>
+      <c r="AG22" s="91"/>
+      <c r="AH22" s="91"/>
+      <c r="AI22" s="91"/>
+      <c r="AJ22" s="91"/>
+      <c r="AK22" s="91"/>
+      <c r="AL22" s="91"/>
+      <c r="AM22" s="91"/>
+      <c r="AN22" s="91"/>
+      <c r="AO22" s="91"/>
+      <c r="AP22" s="91"/>
+      <c r="AQ22" s="91"/>
+      <c r="AR22" s="91"/>
+      <c r="AS22" s="91"/>
+      <c r="AT22" s="91"/>
+      <c r="AU22" s="91"/>
+      <c r="AV22" s="91"/>
+      <c r="AW22" s="91"/>
+      <c r="AX22" s="91"/>
+      <c r="AY22" s="91"/>
+      <c r="AZ22" s="91"/>
+      <c r="BA22" s="91"/>
+      <c r="BB22" s="91"/>
+      <c r="BC22" s="91"/>
+      <c r="BD22" s="91"/>
+      <c r="BE22" s="91"/>
+      <c r="BF22" s="91"/>
+      <c r="BG22" s="91"/>
+      <c r="BH22" s="91"/>
+      <c r="BI22" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="AO12:BI12"/>
-    <mergeCell ref="A17:BI22"/>
-    <mergeCell ref="A16:BI16"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AN14"/>
-    <mergeCell ref="AO14:BI14"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AN9"/>
+    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:AC6"/>
+    <mergeCell ref="AD6:AI6"/>
+    <mergeCell ref="AJ6:BI6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AN8"/>
+    <mergeCell ref="AO8:BI8"/>
     <mergeCell ref="AE10:AN10"/>
     <mergeCell ref="AO10:BI10"/>
     <mergeCell ref="A13:J13"/>
@@ -3565,44 +3595,14 @@
     <mergeCell ref="K12:T12"/>
     <mergeCell ref="U12:AD12"/>
     <mergeCell ref="AE12:AN12"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:AC6"/>
-    <mergeCell ref="AD6:AI6"/>
-    <mergeCell ref="AJ6:BI6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AN8"/>
-    <mergeCell ref="AO8:BI8"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AN9"/>
-    <mergeCell ref="AO9:BI9"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AO12:BI12"/>
+    <mergeCell ref="A17:BI22"/>
+    <mergeCell ref="A16:BI16"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AN14"/>
+    <mergeCell ref="AO14:BI14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3640,71 +3640,71 @@
       <c r="J1" s="95"/>
       <c r="K1" s="95"/>
       <c r="L1" s="95"/>
-      <c r="M1" s="91" t="s">
+      <c r="M1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="92" t="s">
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="91" t="s">
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="92" t="s">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="92"/>
-      <c r="AK1" s="92"/>
-      <c r="AL1" s="92"/>
-      <c r="AM1" s="92"/>
-      <c r="AN1" s="92"/>
-      <c r="AO1" s="92"/>
-      <c r="AP1" s="92"/>
-      <c r="AQ1" s="91" t="s">
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="92" t="s">
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="92"/>
-      <c r="AV1" s="92"/>
-      <c r="AW1" s="92"/>
-      <c r="AX1" s="92"/>
-      <c r="AY1" s="92"/>
-      <c r="AZ1" s="92"/>
-      <c r="BA1" s="91" t="s">
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BA1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="91"/>
-      <c r="BC1" s="91"/>
-      <c r="BD1" s="93">
+      <c r="BB1" s="97"/>
+      <c r="BC1" s="97"/>
+      <c r="BD1" s="94">
         <v>45554</v>
       </c>
-      <c r="BE1" s="93"/>
-      <c r="BF1" s="93"/>
-      <c r="BG1" s="93"/>
-      <c r="BH1" s="93"/>
-      <c r="BI1" s="93"/>
+      <c r="BE1" s="94"/>
+      <c r="BF1" s="94"/>
+      <c r="BG1" s="94"/>
+      <c r="BH1" s="94"/>
+      <c r="BI1" s="94"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -3916,66 +3916,66 @@
       <c r="J2" s="95"/>
       <c r="K2" s="95"/>
       <c r="L2" s="95"/>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="91" t="s">
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="92" t="str">
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="96" t="str">
         <f>クラス仕様!G5</f>
         <v>SerchResultServlet</v>
       </c>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="91" t="s">
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="92"/>
-      <c r="AU2" s="92"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="92"/>
-      <c r="AY2" s="92"/>
-      <c r="AZ2" s="92"/>
-      <c r="BA2" s="91" t="s">
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="91"/>
-      <c r="BC2" s="91"/>
-      <c r="BD2" s="93"/>
-      <c r="BE2" s="93"/>
-      <c r="BF2" s="93"/>
-      <c r="BG2" s="93"/>
-      <c r="BH2" s="93"/>
-      <c r="BI2" s="93"/>
+      <c r="BB2" s="97"/>
+      <c r="BC2" s="97"/>
+      <c r="BD2" s="94"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="94"/>
+      <c r="BG2" s="94"/>
+      <c r="BH2" s="94"/>
+      <c r="BI2" s="94"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -4175,71 +4175,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="98"/>
-      <c r="AT4" s="98"/>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="98"/>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="98"/>
-      <c r="BA4" s="98"/>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="98"/>
-      <c r="BE4" s="98"/>
-      <c r="BF4" s="98"/>
-      <c r="BG4" s="98"/>
-      <c r="BH4" s="98"/>
-      <c r="BI4" s="98"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="92"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -4439,71 +4439,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98" t="s">
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="98"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="98"/>
-      <c r="AP5" s="98"/>
-      <c r="AQ5" s="98"/>
-      <c r="AR5" s="98"/>
-      <c r="AS5" s="98"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="98"/>
-      <c r="AV5" s="98"/>
-      <c r="AW5" s="98"/>
-      <c r="AX5" s="98"/>
-      <c r="AY5" s="98"/>
-      <c r="AZ5" s="98"/>
-      <c r="BA5" s="98"/>
-      <c r="BB5" s="98"/>
-      <c r="BC5" s="98"/>
-      <c r="BD5" s="98"/>
-      <c r="BE5" s="98"/>
-      <c r="BF5" s="98"/>
-      <c r="BG5" s="98"/>
-      <c r="BH5" s="98"/>
-      <c r="BI5" s="98"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="92"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="92"/>
+      <c r="AL5" s="92"/>
+      <c r="AM5" s="92"/>
+      <c r="AN5" s="92"/>
+      <c r="AO5" s="92"/>
+      <c r="AP5" s="92"/>
+      <c r="AQ5" s="92"/>
+      <c r="AR5" s="92"/>
+      <c r="AS5" s="92"/>
+      <c r="AT5" s="92"/>
+      <c r="AU5" s="92"/>
+      <c r="AV5" s="92"/>
+      <c r="AW5" s="92"/>
+      <c r="AX5" s="92"/>
+      <c r="AY5" s="92"/>
+      <c r="AZ5" s="92"/>
+      <c r="BA5" s="92"/>
+      <c r="BB5" s="92"/>
+      <c r="BC5" s="92"/>
+      <c r="BD5" s="92"/>
+      <c r="BE5" s="92"/>
+      <c r="BF5" s="92"/>
+      <c r="BG5" s="92"/>
+      <c r="BH5" s="92"/>
+      <c r="BI5" s="92"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -17485,19 +17485,22 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="AT13:BI13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:AS13"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
     <mergeCell ref="A5:F5"/>
@@ -17514,22 +17517,19 @@
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="R2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="AT13:BI13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:AS13"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -17548,8 +17548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IW54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AU51" sqref="AU51"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC47" sqref="AC47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17575,72 +17575,72 @@
       <c r="H1" s="95"/>
       <c r="I1" s="95"/>
       <c r="J1" s="95"/>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="92" t="s">
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="91" t="s">
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="92" t="s">
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="92"/>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="92"/>
-      <c r="AK1" s="92"/>
-      <c r="AL1" s="92"/>
-      <c r="AM1" s="92"/>
-      <c r="AN1" s="92"/>
-      <c r="AO1" s="91" t="s">
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="91"/>
-      <c r="AU1" s="92" t="s">
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="92"/>
-      <c r="AW1" s="92"/>
-      <c r="AX1" s="92"/>
-      <c r="AY1" s="92"/>
-      <c r="AZ1" s="92"/>
-      <c r="BA1" s="91" t="s">
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BA1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="91"/>
-      <c r="BC1" s="91"/>
-      <c r="BD1" s="93">
+      <c r="BB1" s="97"/>
+      <c r="BC1" s="97"/>
+      <c r="BD1" s="94">
         <v>45554</v>
       </c>
-      <c r="BE1" s="93"/>
-      <c r="BF1" s="93"/>
-      <c r="BG1" s="93"/>
-      <c r="BH1" s="93"/>
+      <c r="BE1" s="94"/>
+      <c r="BF1" s="94"/>
+      <c r="BG1" s="94"/>
+      <c r="BH1" s="94"/>
       <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
@@ -17850,67 +17850,67 @@
       <c r="H2" s="95"/>
       <c r="I2" s="95"/>
       <c r="J2" s="95"/>
-      <c r="K2" s="91" t="s">
+      <c r="K2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="91" t="s">
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="92" t="str">
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="96" t="str">
         <f>クラス仕様!G5</f>
         <v>SerchResultServlet</v>
       </c>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="91" t="s">
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="91"/>
-      <c r="AQ2" s="91"/>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="91"/>
-      <c r="AU2" s="92"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="92"/>
-      <c r="AY2" s="92"/>
-      <c r="AZ2" s="92"/>
-      <c r="BA2" s="91" t="s">
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="91"/>
-      <c r="BC2" s="91"/>
-      <c r="BD2" s="93"/>
-      <c r="BE2" s="93"/>
-      <c r="BF2" s="93"/>
-      <c r="BG2" s="93"/>
-      <c r="BH2" s="93"/>
+      <c r="BB2" s="97"/>
+      <c r="BC2" s="97"/>
+      <c r="BD2" s="94"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="94"/>
+      <c r="BG2" s="94"/>
+      <c r="BH2" s="94"/>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
@@ -18110,70 +18110,70 @@
       <c r="IW2" s="1"/>
     </row>
     <row r="4" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="98"/>
-      <c r="AT4" s="98"/>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="98"/>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="98"/>
-      <c r="BA4" s="98"/>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="98"/>
-      <c r="BE4" s="98"/>
-      <c r="BF4" s="98"/>
-      <c r="BG4" s="98"/>
-      <c r="BH4" s="98"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="92"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
       <c r="BI4" s="1"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
@@ -18373,70 +18373,70 @@
       <c r="IW4" s="1"/>
     </row>
     <row r="5" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98" t="s">
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="98"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="98"/>
-      <c r="AP5" s="98"/>
-      <c r="AQ5" s="98"/>
-      <c r="AR5" s="98"/>
-      <c r="AS5" s="98"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="98"/>
-      <c r="AV5" s="98"/>
-      <c r="AW5" s="98"/>
-      <c r="AX5" s="98"/>
-      <c r="AY5" s="98"/>
-      <c r="AZ5" s="98"/>
-      <c r="BA5" s="98"/>
-      <c r="BB5" s="98"/>
-      <c r="BC5" s="98"/>
-      <c r="BD5" s="98"/>
-      <c r="BE5" s="98"/>
-      <c r="BF5" s="98"/>
-      <c r="BG5" s="98"/>
-      <c r="BH5" s="98"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="92"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="92"/>
+      <c r="AL5" s="92"/>
+      <c r="AM5" s="92"/>
+      <c r="AN5" s="92"/>
+      <c r="AO5" s="92"/>
+      <c r="AP5" s="92"/>
+      <c r="AQ5" s="92"/>
+      <c r="AR5" s="92"/>
+      <c r="AS5" s="92"/>
+      <c r="AT5" s="92"/>
+      <c r="AU5" s="92"/>
+      <c r="AV5" s="92"/>
+      <c r="AW5" s="92"/>
+      <c r="AX5" s="92"/>
+      <c r="AY5" s="92"/>
+      <c r="AZ5" s="92"/>
+      <c r="BA5" s="92"/>
+      <c r="BB5" s="92"/>
+      <c r="BC5" s="92"/>
+      <c r="BD5" s="92"/>
+      <c r="BE5" s="92"/>
+      <c r="BF5" s="92"/>
+      <c r="BG5" s="92"/>
+      <c r="BH5" s="92"/>
       <c r="BI5" s="1"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
@@ -31558,6 +31558,71 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="AC10:BH10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="O11:AB11"/>
+    <mergeCell ref="AC11:BH11"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AN2"/>
+    <mergeCell ref="AO2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BH4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BH5"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="BD2:BH2"/>
+    <mergeCell ref="Q1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AN1"/>
+    <mergeCell ref="AO1:AT1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BH1"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="O8:AB8"/>
+    <mergeCell ref="AC8:BH8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="O7:AB7"/>
+    <mergeCell ref="AC7:BH7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="O9:AB9"/>
+    <mergeCell ref="AC9:BH9"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:N19"/>
+    <mergeCell ref="O19:AB19"/>
+    <mergeCell ref="AC19:BH19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:N20"/>
+    <mergeCell ref="O20:AB20"/>
+    <mergeCell ref="AC20:BH20"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O10:AB10"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:N14"/>
+    <mergeCell ref="O14:AB14"/>
+    <mergeCell ref="AC14:BH14"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:AT22"/>
+    <mergeCell ref="AU22:BH22"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:N12"/>
+    <mergeCell ref="O12:AB12"/>
+    <mergeCell ref="AC12:BH12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:N13"/>
+    <mergeCell ref="O13:AB13"/>
+    <mergeCell ref="AC13:BH13"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D18:N18"/>
     <mergeCell ref="O18:AB18"/>
@@ -31574,71 +31639,6 @@
     <mergeCell ref="D17:N17"/>
     <mergeCell ref="O17:AB17"/>
     <mergeCell ref="AC17:BH17"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:N12"/>
-    <mergeCell ref="O12:AB12"/>
-    <mergeCell ref="AC12:BH12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:N13"/>
-    <mergeCell ref="O13:AB13"/>
-    <mergeCell ref="AC13:BH13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:N14"/>
-    <mergeCell ref="O14:AB14"/>
-    <mergeCell ref="AC14:BH14"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:AT22"/>
-    <mergeCell ref="AU22:BH22"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:N9"/>
-    <mergeCell ref="O9:AB9"/>
-    <mergeCell ref="AC9:BH9"/>
-    <mergeCell ref="A22:N22"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:N19"/>
-    <mergeCell ref="O19:AB19"/>
-    <mergeCell ref="AC19:BH19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:N20"/>
-    <mergeCell ref="O20:AB20"/>
-    <mergeCell ref="AC20:BH20"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:N8"/>
-    <mergeCell ref="O8:AB8"/>
-    <mergeCell ref="AC8:BH8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:N7"/>
-    <mergeCell ref="O7:AB7"/>
-    <mergeCell ref="AC7:BH7"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BH4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BH5"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="BD2:BH2"/>
-    <mergeCell ref="Q1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AN1"/>
-    <mergeCell ref="AO1:AT1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BH1"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AN2"/>
-    <mergeCell ref="AO2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O10:AB10"/>
-    <mergeCell ref="AC10:BH10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:N11"/>
-    <mergeCell ref="O11:AB11"/>
-    <mergeCell ref="AC11:BH11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -31654,21 +31654,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -31800,24 +31785,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E88503-2BF5-4213-82B7-01925F2C7A20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC473E1-630C-47C0-8277-41F4549C3C72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27446016-DB91-4EAC-B347-E10B099FE93C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31833,4 +31816,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC473E1-630C-47C0-8277-41F4549C3C72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E88503-2BF5-4213-82B7-01925F2C7A20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/Servlet/SearchResultServlet_クラス仕様書.xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/Servlet/SearchResultServlet_クラス仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AAF932-0BA8-496B-A51D-96D2EE060DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C39A725-53BD-4572-917B-A225A3364E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1740" yWindow="7884" windowWidth="15744" windowHeight="7884" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（doGet）'!$A$1:$BI$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'メソッド仕様（doPost）'!$A$1:$BH$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'メソッド仕様（doPost）'!$A$1:$BH$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -267,31 +267,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>引数；インプット[keyword]</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SearchResultServiceをインスタンス化し、代入</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メソッドの戻り値を代入する変数を定義</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メソッドの戻り値にlistを代入</t>
-    <rPh sb="5" eb="6">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ダイニュウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -344,10 +324,6 @@
     <rPh sb="6" eb="8">
       <t>センゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 変数宣言:[categoryName] </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -459,22 +435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5.4 変数pathに定義した遷移先に出力</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>センイサキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>データの出力と</t>
     <rPh sb="4" eb="6">
       <t>シュツリョク</t>
@@ -490,10 +450,6 @@
   </si>
   <si>
     <t>5.4 変数requestを用いて、変数keywordをフォワード先にセット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.3 変数requestを用いて、変数categoryNameをフォワード先にセット</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -533,10 +489,6 @@
   </si>
   <si>
     <t>keyword</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>categoryName</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -587,25 +539,6 @@
       <t>カクノウ</t>
     </rPh>
     <rPh sb="22" eb="24">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索したカテゴリー名のインプット情報を格納する変数</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
       <t>ヘンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -745,6 +678,111 @@
 urlPatterns:/searchResult</t>
     <rPh sb="37" eb="39">
       <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 変数宣言:[categoryId] </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドの戻り値にlistを代入</t>
+  </si>
+  <si>
+    <t>引数：keyword, category</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>categoryId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索したカテゴリーIDのインプット情報を格納する変数</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.5 categoryIdによる分岐処理</t>
+    <rPh sb="17" eb="19">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.5.1 categoryIdが"0"以外の時</t>
+    <rPh sb="20" eb="22">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数listから1件目のデータのカテゴリー名を取得し、変数requestを用いてフォワード先にセット</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンメ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[categoryName]</t>
+  </si>
+  <si>
+    <t>5.6 変数pathに定義した遷移先に出力</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>引数：インプット[keyword]</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1477,29 +1515,29 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1904,71 +1942,71 @@
       <c r="J1" s="95"/>
       <c r="K1" s="95"/>
       <c r="L1" s="95"/>
-      <c r="M1" s="97" t="s">
+      <c r="M1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="96" t="s">
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="97" t="s">
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="96" t="s">
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="97" t="s">
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="96" t="s">
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="96"/>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="97" t="s">
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="97"/>
-      <c r="BC1" s="97"/>
-      <c r="BD1" s="94">
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="93">
         <v>45554</v>
       </c>
-      <c r="BE1" s="94"/>
-      <c r="BF1" s="94"/>
-      <c r="BG1" s="94"/>
-      <c r="BH1" s="94"/>
-      <c r="BI1" s="94"/>
+      <c r="BE1" s="93"/>
+      <c r="BF1" s="93"/>
+      <c r="BG1" s="93"/>
+      <c r="BH1" s="93"/>
+      <c r="BI1" s="93"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -2180,66 +2218,66 @@
       <c r="J2" s="95"/>
       <c r="K2" s="95"/>
       <c r="L2" s="95"/>
-      <c r="M2" s="97" t="s">
+      <c r="M2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="97" t="s">
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="96" t="str">
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="92" t="str">
         <f>クラス仕様!G5</f>
         <v>SerchResultServlet</v>
       </c>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
-      <c r="AM2" s="96"/>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="96"/>
-      <c r="AP2" s="96"/>
-      <c r="AQ2" s="97" t="s">
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="96"/>
-      <c r="AU2" s="96"/>
-      <c r="AV2" s="96"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="96"/>
-      <c r="AY2" s="96"/>
-      <c r="AZ2" s="96"/>
-      <c r="BA2" s="97" t="s">
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="92"/>
+      <c r="AY2" s="92"/>
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="97"/>
-      <c r="BC2" s="97"/>
-      <c r="BD2" s="94"/>
-      <c r="BE2" s="94"/>
-      <c r="BF2" s="94"/>
-      <c r="BG2" s="94"/>
-      <c r="BH2" s="94"/>
-      <c r="BI2" s="94"/>
+      <c r="BB2" s="91"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="93"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="93"/>
+      <c r="BG2" s="93"/>
+      <c r="BH2" s="93"/>
+      <c r="BI2" s="93"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -2439,1114 +2477,1148 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="92" t="s">
-        <v>119</v>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
+        <v>112</v>
       </c>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="92"/>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="92"/>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98"/>
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="98"/>
+      <c r="AT4" s="98"/>
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="98"/>
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="98"/>
+      <c r="AZ4" s="98"/>
+      <c r="BA4" s="98"/>
+      <c r="BB4" s="98"/>
+      <c r="BC4" s="98"/>
+      <c r="BD4" s="98"/>
+      <c r="BE4" s="98"/>
+      <c r="BF4" s="98"/>
+      <c r="BG4" s="98"/>
+      <c r="BH4" s="98"/>
+      <c r="BI4" s="98"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="92" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="92"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="92"/>
-      <c r="AM5" s="92"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="92"/>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="92"/>
-      <c r="AW5" s="92"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="92"/>
-      <c r="AZ5" s="92"/>
-      <c r="BA5" s="92"/>
-      <c r="BB5" s="92"/>
-      <c r="BC5" s="92"/>
-      <c r="BD5" s="92"/>
-      <c r="BE5" s="92"/>
-      <c r="BF5" s="92"/>
-      <c r="BG5" s="92"/>
-      <c r="BH5" s="92"/>
-      <c r="BI5" s="92"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="98"/>
+      <c r="AE5" s="98"/>
+      <c r="AF5" s="98"/>
+      <c r="AG5" s="98"/>
+      <c r="AH5" s="98"/>
+      <c r="AI5" s="98"/>
+      <c r="AJ5" s="98"/>
+      <c r="AK5" s="98"/>
+      <c r="AL5" s="98"/>
+      <c r="AM5" s="98"/>
+      <c r="AN5" s="98"/>
+      <c r="AO5" s="98"/>
+      <c r="AP5" s="98"/>
+      <c r="AQ5" s="98"/>
+      <c r="AR5" s="98"/>
+      <c r="AS5" s="98"/>
+      <c r="AT5" s="98"/>
+      <c r="AU5" s="98"/>
+      <c r="AV5" s="98"/>
+      <c r="AW5" s="98"/>
+      <c r="AX5" s="98"/>
+      <c r="AY5" s="98"/>
+      <c r="AZ5" s="98"/>
+      <c r="BA5" s="98"/>
+      <c r="BB5" s="98"/>
+      <c r="BC5" s="98"/>
+      <c r="BD5" s="98"/>
+      <c r="BE5" s="98"/>
+      <c r="BF5" s="98"/>
+      <c r="BG5" s="98"/>
+      <c r="BH5" s="98"/>
+      <c r="BI5" s="98"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="92" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="93" t="s">
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="93"/>
-      <c r="AI6" s="93"/>
-      <c r="AJ6" s="92" t="s">
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="97"/>
+      <c r="AI6" s="97"/>
+      <c r="AJ6" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="AK6" s="92"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="92"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="92"/>
-      <c r="AQ6" s="92"/>
-      <c r="AR6" s="92"/>
-      <c r="AS6" s="92"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="92"/>
-      <c r="AV6" s="92"/>
-      <c r="AW6" s="92"/>
-      <c r="AX6" s="92"/>
-      <c r="AY6" s="92"/>
-      <c r="AZ6" s="92"/>
-      <c r="BA6" s="92"/>
-      <c r="BB6" s="92"/>
-      <c r="BC6" s="92"/>
-      <c r="BD6" s="92"/>
-      <c r="BE6" s="92"/>
-      <c r="BF6" s="92"/>
-      <c r="BG6" s="92"/>
-      <c r="BH6" s="92"/>
-      <c r="BI6" s="92"/>
+      <c r="AK6" s="98"/>
+      <c r="AL6" s="98"/>
+      <c r="AM6" s="98"/>
+      <c r="AN6" s="98"/>
+      <c r="AO6" s="98"/>
+      <c r="AP6" s="98"/>
+      <c r="AQ6" s="98"/>
+      <c r="AR6" s="98"/>
+      <c r="AS6" s="98"/>
+      <c r="AT6" s="98"/>
+      <c r="AU6" s="98"/>
+      <c r="AV6" s="98"/>
+      <c r="AW6" s="98"/>
+      <c r="AX6" s="98"/>
+      <c r="AY6" s="98"/>
+      <c r="AZ6" s="98"/>
+      <c r="BA6" s="98"/>
+      <c r="BB6" s="98"/>
+      <c r="BC6" s="98"/>
+      <c r="BD6" s="98"/>
+      <c r="BE6" s="98"/>
+      <c r="BF6" s="98"/>
+      <c r="BG6" s="98"/>
+      <c r="BH6" s="98"/>
+      <c r="BI6" s="98"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93" t="s">
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93" t="s">
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93" t="s">
+      <c r="V8" s="97"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="97"/>
+      <c r="AE8" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="93" t="s">
+      <c r="AF8" s="97"/>
+      <c r="AG8" s="97"/>
+      <c r="AH8" s="97"/>
+      <c r="AI8" s="97"/>
+      <c r="AJ8" s="97"/>
+      <c r="AK8" s="97"/>
+      <c r="AL8" s="97"/>
+      <c r="AM8" s="97"/>
+      <c r="AN8" s="97"/>
+      <c r="AO8" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="93"/>
-      <c r="AV8" s="93"/>
-      <c r="AW8" s="93"/>
-      <c r="AX8" s="93"/>
-      <c r="AY8" s="93"/>
-      <c r="AZ8" s="93"/>
-      <c r="BA8" s="93"/>
-      <c r="BB8" s="93"/>
-      <c r="BC8" s="93"/>
-      <c r="BD8" s="93"/>
-      <c r="BE8" s="93"/>
-      <c r="BF8" s="93"/>
-      <c r="BG8" s="93"/>
-      <c r="BH8" s="93"/>
-      <c r="BI8" s="93"/>
+      <c r="AP8" s="97"/>
+      <c r="AQ8" s="97"/>
+      <c r="AR8" s="97"/>
+      <c r="AS8" s="97"/>
+      <c r="AT8" s="97"/>
+      <c r="AU8" s="97"/>
+      <c r="AV8" s="97"/>
+      <c r="AW8" s="97"/>
+      <c r="AX8" s="97"/>
+      <c r="AY8" s="97"/>
+      <c r="AZ8" s="97"/>
+      <c r="BA8" s="97"/>
+      <c r="BB8" s="97"/>
+      <c r="BC8" s="97"/>
+      <c r="BD8" s="97"/>
+      <c r="BE8" s="97"/>
+      <c r="BF8" s="97"/>
+      <c r="BG8" s="97"/>
+      <c r="BH8" s="97"/>
+      <c r="BI8" s="97"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="91"/>
-      <c r="AI9" s="91"/>
-      <c r="AJ9" s="91"/>
-      <c r="AK9" s="91"/>
-      <c r="AL9" s="91"/>
-      <c r="AM9" s="91"/>
-      <c r="AN9" s="91"/>
-      <c r="AO9" s="91"/>
-      <c r="AP9" s="91"/>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="91"/>
-      <c r="AS9" s="91"/>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="91"/>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="91"/>
-      <c r="AX9" s="91"/>
-      <c r="AY9" s="91"/>
-      <c r="AZ9" s="91"/>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="91"/>
-      <c r="BC9" s="91"/>
-      <c r="BD9" s="91"/>
-      <c r="BE9" s="91"/>
-      <c r="BF9" s="91"/>
-      <c r="BG9" s="91"/>
-      <c r="BH9" s="91"/>
-      <c r="BI9" s="91"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="94"/>
+      <c r="AI9" s="94"/>
+      <c r="AJ9" s="94"/>
+      <c r="AK9" s="94"/>
+      <c r="AL9" s="94"/>
+      <c r="AM9" s="94"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="94"/>
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="94"/>
+      <c r="AR9" s="94"/>
+      <c r="AS9" s="94"/>
+      <c r="AT9" s="94"/>
+      <c r="AU9" s="94"/>
+      <c r="AV9" s="94"/>
+      <c r="AW9" s="94"/>
+      <c r="AX9" s="94"/>
+      <c r="AY9" s="94"/>
+      <c r="AZ9" s="94"/>
+      <c r="BA9" s="94"/>
+      <c r="BB9" s="94"/>
+      <c r="BC9" s="94"/>
+      <c r="BD9" s="94"/>
+      <c r="BE9" s="94"/>
+      <c r="BF9" s="94"/>
+      <c r="BG9" s="94"/>
+      <c r="BH9" s="94"/>
+      <c r="BI9" s="94"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="91"/>
-      <c r="AD10" s="91"/>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="91"/>
-      <c r="AK10" s="91"/>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="91"/>
-      <c r="AO10" s="91"/>
-      <c r="AP10" s="91"/>
-      <c r="AQ10" s="91"/>
-      <c r="AR10" s="91"/>
-      <c r="AS10" s="91"/>
-      <c r="AT10" s="91"/>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="91"/>
-      <c r="AY10" s="91"/>
-      <c r="AZ10" s="91"/>
-      <c r="BA10" s="91"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="91"/>
-      <c r="BD10" s="91"/>
-      <c r="BE10" s="91"/>
-      <c r="BF10" s="91"/>
-      <c r="BG10" s="91"/>
-      <c r="BH10" s="91"/>
-      <c r="BI10" s="91"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="94"/>
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="94"/>
+      <c r="AP10" s="94"/>
+      <c r="AQ10" s="94"/>
+      <c r="AR10" s="94"/>
+      <c r="AS10" s="94"/>
+      <c r="AT10" s="94"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="94"/>
+      <c r="AW10" s="94"/>
+      <c r="AX10" s="94"/>
+      <c r="AY10" s="94"/>
+      <c r="AZ10" s="94"/>
+      <c r="BA10" s="94"/>
+      <c r="BB10" s="94"/>
+      <c r="BC10" s="94"/>
+      <c r="BD10" s="94"/>
+      <c r="BE10" s="94"/>
+      <c r="BF10" s="94"/>
+      <c r="BG10" s="94"/>
+      <c r="BH10" s="94"/>
+      <c r="BI10" s="94"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="91"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="91"/>
-      <c r="Z11" s="91"/>
-      <c r="AA11" s="91"/>
-      <c r="AB11" s="91"/>
-      <c r="AC11" s="91"/>
-      <c r="AD11" s="91"/>
-      <c r="AE11" s="91"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="91"/>
-      <c r="AH11" s="91"/>
-      <c r="AI11" s="91"/>
-      <c r="AJ11" s="91"/>
-      <c r="AK11" s="91"/>
-      <c r="AL11" s="91"/>
-      <c r="AM11" s="91"/>
-      <c r="AN11" s="91"/>
-      <c r="AO11" s="91"/>
-      <c r="AP11" s="91"/>
-      <c r="AQ11" s="91"/>
-      <c r="AR11" s="91"/>
-      <c r="AS11" s="91"/>
-      <c r="AT11" s="91"/>
-      <c r="AU11" s="91"/>
-      <c r="AV11" s="91"/>
-      <c r="AW11" s="91"/>
-      <c r="AX11" s="91"/>
-      <c r="AY11" s="91"/>
-      <c r="AZ11" s="91"/>
-      <c r="BA11" s="91"/>
-      <c r="BB11" s="91"/>
-      <c r="BC11" s="91"/>
-      <c r="BD11" s="91"/>
-      <c r="BE11" s="91"/>
-      <c r="BF11" s="91"/>
-      <c r="BG11" s="91"/>
-      <c r="BH11" s="91"/>
-      <c r="BI11" s="91"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="94"/>
+      <c r="AI11" s="94"/>
+      <c r="AJ11" s="94"/>
+      <c r="AK11" s="94"/>
+      <c r="AL11" s="94"/>
+      <c r="AM11" s="94"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="94"/>
+      <c r="AP11" s="94"/>
+      <c r="AQ11" s="94"/>
+      <c r="AR11" s="94"/>
+      <c r="AS11" s="94"/>
+      <c r="AT11" s="94"/>
+      <c r="AU11" s="94"/>
+      <c r="AV11" s="94"/>
+      <c r="AW11" s="94"/>
+      <c r="AX11" s="94"/>
+      <c r="AY11" s="94"/>
+      <c r="AZ11" s="94"/>
+      <c r="BA11" s="94"/>
+      <c r="BB11" s="94"/>
+      <c r="BC11" s="94"/>
+      <c r="BD11" s="94"/>
+      <c r="BE11" s="94"/>
+      <c r="BF11" s="94"/>
+      <c r="BG11" s="94"/>
+      <c r="BH11" s="94"/>
+      <c r="BI11" s="94"/>
     </row>
     <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="91"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="91"/>
-      <c r="U12" s="91"/>
-      <c r="V12" s="91"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="91"/>
-      <c r="Z12" s="91"/>
-      <c r="AA12" s="91"/>
-      <c r="AB12" s="91"/>
-      <c r="AC12" s="91"/>
-      <c r="AD12" s="91"/>
-      <c r="AE12" s="91"/>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="91"/>
-      <c r="AH12" s="91"/>
-      <c r="AI12" s="91"/>
-      <c r="AJ12" s="91"/>
-      <c r="AK12" s="91"/>
-      <c r="AL12" s="91"/>
-      <c r="AM12" s="91"/>
-      <c r="AN12" s="91"/>
-      <c r="AO12" s="91"/>
-      <c r="AP12" s="91"/>
-      <c r="AQ12" s="91"/>
-      <c r="AR12" s="91"/>
-      <c r="AS12" s="91"/>
-      <c r="AT12" s="91"/>
-      <c r="AU12" s="91"/>
-      <c r="AV12" s="91"/>
-      <c r="AW12" s="91"/>
-      <c r="AX12" s="91"/>
-      <c r="AY12" s="91"/>
-      <c r="AZ12" s="91"/>
-      <c r="BA12" s="91"/>
-      <c r="BB12" s="91"/>
-      <c r="BC12" s="91"/>
-      <c r="BD12" s="91"/>
-      <c r="BE12" s="91"/>
-      <c r="BF12" s="91"/>
-      <c r="BG12" s="91"/>
-      <c r="BH12" s="91"/>
-      <c r="BI12" s="91"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="94"/>
+      <c r="AJ12" s="94"/>
+      <c r="AK12" s="94"/>
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="94"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="94"/>
+      <c r="AP12" s="94"/>
+      <c r="AQ12" s="94"/>
+      <c r="AR12" s="94"/>
+      <c r="AS12" s="94"/>
+      <c r="AT12" s="94"/>
+      <c r="AU12" s="94"/>
+      <c r="AV12" s="94"/>
+      <c r="AW12" s="94"/>
+      <c r="AX12" s="94"/>
+      <c r="AY12" s="94"/>
+      <c r="AZ12" s="94"/>
+      <c r="BA12" s="94"/>
+      <c r="BB12" s="94"/>
+      <c r="BC12" s="94"/>
+      <c r="BD12" s="94"/>
+      <c r="BE12" s="94"/>
+      <c r="BF12" s="94"/>
+      <c r="BG12" s="94"/>
+      <c r="BH12" s="94"/>
+      <c r="BI12" s="94"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="91"/>
-      <c r="V13" s="91"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="91"/>
-      <c r="AA13" s="91"/>
-      <c r="AB13" s="91"/>
-      <c r="AC13" s="91"/>
-      <c r="AD13" s="91"/>
-      <c r="AE13" s="91"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="91"/>
-      <c r="AH13" s="91"/>
-      <c r="AI13" s="91"/>
-      <c r="AJ13" s="91"/>
-      <c r="AK13" s="91"/>
-      <c r="AL13" s="91"/>
-      <c r="AM13" s="91"/>
-      <c r="AN13" s="91"/>
-      <c r="AO13" s="91"/>
-      <c r="AP13" s="91"/>
-      <c r="AQ13" s="91"/>
-      <c r="AR13" s="91"/>
-      <c r="AS13" s="91"/>
-      <c r="AT13" s="91"/>
-      <c r="AU13" s="91"/>
-      <c r="AV13" s="91"/>
-      <c r="AW13" s="91"/>
-      <c r="AX13" s="91"/>
-      <c r="AY13" s="91"/>
-      <c r="AZ13" s="91"/>
-      <c r="BA13" s="91"/>
-      <c r="BB13" s="91"/>
-      <c r="BC13" s="91"/>
-      <c r="BD13" s="91"/>
-      <c r="BE13" s="91"/>
-      <c r="BF13" s="91"/>
-      <c r="BG13" s="91"/>
-      <c r="BH13" s="91"/>
-      <c r="BI13" s="91"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="94"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="94"/>
+      <c r="AH13" s="94"/>
+      <c r="AI13" s="94"/>
+      <c r="AJ13" s="94"/>
+      <c r="AK13" s="94"/>
+      <c r="AL13" s="94"/>
+      <c r="AM13" s="94"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="94"/>
+      <c r="AP13" s="94"/>
+      <c r="AQ13" s="94"/>
+      <c r="AR13" s="94"/>
+      <c r="AS13" s="94"/>
+      <c r="AT13" s="94"/>
+      <c r="AU13" s="94"/>
+      <c r="AV13" s="94"/>
+      <c r="AW13" s="94"/>
+      <c r="AX13" s="94"/>
+      <c r="AY13" s="94"/>
+      <c r="AZ13" s="94"/>
+      <c r="BA13" s="94"/>
+      <c r="BB13" s="94"/>
+      <c r="BC13" s="94"/>
+      <c r="BD13" s="94"/>
+      <c r="BE13" s="94"/>
+      <c r="BF13" s="94"/>
+      <c r="BG13" s="94"/>
+      <c r="BH13" s="94"/>
+      <c r="BI13" s="94"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="91"/>
-      <c r="U14" s="91"/>
-      <c r="V14" s="91"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="91"/>
-      <c r="Y14" s="91"/>
-      <c r="Z14" s="91"/>
-      <c r="AA14" s="91"/>
-      <c r="AB14" s="91"/>
-      <c r="AC14" s="91"/>
-      <c r="AD14" s="91"/>
-      <c r="AE14" s="91"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="91"/>
-      <c r="AH14" s="91"/>
-      <c r="AI14" s="91"/>
-      <c r="AJ14" s="91"/>
-      <c r="AK14" s="91"/>
-      <c r="AL14" s="91"/>
-      <c r="AM14" s="91"/>
-      <c r="AN14" s="91"/>
-      <c r="AO14" s="91"/>
-      <c r="AP14" s="91"/>
-      <c r="AQ14" s="91"/>
-      <c r="AR14" s="91"/>
-      <c r="AS14" s="91"/>
-      <c r="AT14" s="91"/>
-      <c r="AU14" s="91"/>
-      <c r="AV14" s="91"/>
-      <c r="AW14" s="91"/>
-      <c r="AX14" s="91"/>
-      <c r="AY14" s="91"/>
-      <c r="AZ14" s="91"/>
-      <c r="BA14" s="91"/>
-      <c r="BB14" s="91"/>
-      <c r="BC14" s="91"/>
-      <c r="BD14" s="91"/>
-      <c r="BE14" s="91"/>
-      <c r="BF14" s="91"/>
-      <c r="BG14" s="91"/>
-      <c r="BH14" s="91"/>
-      <c r="BI14" s="91"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="94"/>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="94"/>
+      <c r="AQ14" s="94"/>
+      <c r="AR14" s="94"/>
+      <c r="AS14" s="94"/>
+      <c r="AT14" s="94"/>
+      <c r="AU14" s="94"/>
+      <c r="AV14" s="94"/>
+      <c r="AW14" s="94"/>
+      <c r="AX14" s="94"/>
+      <c r="AY14" s="94"/>
+      <c r="AZ14" s="94"/>
+      <c r="BA14" s="94"/>
+      <c r="BB14" s="94"/>
+      <c r="BC14" s="94"/>
+      <c r="BD14" s="94"/>
+      <c r="BE14" s="94"/>
+      <c r="BF14" s="94"/>
+      <c r="BG14" s="94"/>
+      <c r="BH14" s="94"/>
+      <c r="BI14" s="94"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="93"/>
-      <c r="AW16" s="93"/>
-      <c r="AX16" s="93"/>
-      <c r="AY16" s="93"/>
-      <c r="AZ16" s="93"/>
-      <c r="BA16" s="93"/>
-      <c r="BB16" s="93"/>
-      <c r="BC16" s="93"/>
-      <c r="BD16" s="93"/>
-      <c r="BE16" s="93"/>
-      <c r="BF16" s="93"/>
-      <c r="BG16" s="93"/>
-      <c r="BH16" s="93"/>
-      <c r="BI16" s="93"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="97"/>
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="97"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="97"/>
+      <c r="AN16" s="97"/>
+      <c r="AO16" s="97"/>
+      <c r="AP16" s="97"/>
+      <c r="AQ16" s="97"/>
+      <c r="AR16" s="97"/>
+      <c r="AS16" s="97"/>
+      <c r="AT16" s="97"/>
+      <c r="AU16" s="97"/>
+      <c r="AV16" s="97"/>
+      <c r="AW16" s="97"/>
+      <c r="AX16" s="97"/>
+      <c r="AY16" s="97"/>
+      <c r="AZ16" s="97"/>
+      <c r="BA16" s="97"/>
+      <c r="BB16" s="97"/>
+      <c r="BC16" s="97"/>
+      <c r="BD16" s="97"/>
+      <c r="BE16" s="97"/>
+      <c r="BF16" s="97"/>
+      <c r="BG16" s="97"/>
+      <c r="BH16" s="97"/>
+      <c r="BI16" s="97"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="92" t="s">
-        <v>120</v>
+      <c r="A17" s="98" t="s">
+        <v>113</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="91"/>
-      <c r="W17" s="91"/>
-      <c r="X17" s="91"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="91"/>
-      <c r="AC17" s="91"/>
-      <c r="AD17" s="91"/>
-      <c r="AE17" s="91"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="91"/>
-      <c r="AH17" s="91"/>
-      <c r="AI17" s="91"/>
-      <c r="AJ17" s="91"/>
-      <c r="AK17" s="91"/>
-      <c r="AL17" s="91"/>
-      <c r="AM17" s="91"/>
-      <c r="AN17" s="91"/>
-      <c r="AO17" s="91"/>
-      <c r="AP17" s="91"/>
-      <c r="AQ17" s="91"/>
-      <c r="AR17" s="91"/>
-      <c r="AS17" s="91"/>
-      <c r="AT17" s="91"/>
-      <c r="AU17" s="91"/>
-      <c r="AV17" s="91"/>
-      <c r="AW17" s="91"/>
-      <c r="AX17" s="91"/>
-      <c r="AY17" s="91"/>
-      <c r="AZ17" s="91"/>
-      <c r="BA17" s="91"/>
-      <c r="BB17" s="91"/>
-      <c r="BC17" s="91"/>
-      <c r="BD17" s="91"/>
-      <c r="BE17" s="91"/>
-      <c r="BF17" s="91"/>
-      <c r="BG17" s="91"/>
-      <c r="BH17" s="91"/>
-      <c r="BI17" s="91"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="94"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="94"/>
+      <c r="AE17" s="94"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="94"/>
+      <c r="AH17" s="94"/>
+      <c r="AI17" s="94"/>
+      <c r="AJ17" s="94"/>
+      <c r="AK17" s="94"/>
+      <c r="AL17" s="94"/>
+      <c r="AM17" s="94"/>
+      <c r="AN17" s="94"/>
+      <c r="AO17" s="94"/>
+      <c r="AP17" s="94"/>
+      <c r="AQ17" s="94"/>
+      <c r="AR17" s="94"/>
+      <c r="AS17" s="94"/>
+      <c r="AT17" s="94"/>
+      <c r="AU17" s="94"/>
+      <c r="AV17" s="94"/>
+      <c r="AW17" s="94"/>
+      <c r="AX17" s="94"/>
+      <c r="AY17" s="94"/>
+      <c r="AZ17" s="94"/>
+      <c r="BA17" s="94"/>
+      <c r="BB17" s="94"/>
+      <c r="BC17" s="94"/>
+      <c r="BD17" s="94"/>
+      <c r="BE17" s="94"/>
+      <c r="BF17" s="94"/>
+      <c r="BG17" s="94"/>
+      <c r="BH17" s="94"/>
+      <c r="BI17" s="94"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="91"/>
-      <c r="W18" s="91"/>
-      <c r="X18" s="91"/>
-      <c r="Y18" s="91"/>
-      <c r="Z18" s="91"/>
-      <c r="AA18" s="91"/>
-      <c r="AB18" s="91"/>
-      <c r="AC18" s="91"/>
-      <c r="AD18" s="91"/>
-      <c r="AE18" s="91"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="91"/>
-      <c r="AH18" s="91"/>
-      <c r="AI18" s="91"/>
-      <c r="AJ18" s="91"/>
-      <c r="AK18" s="91"/>
-      <c r="AL18" s="91"/>
-      <c r="AM18" s="91"/>
-      <c r="AN18" s="91"/>
-      <c r="AO18" s="91"/>
-      <c r="AP18" s="91"/>
-      <c r="AQ18" s="91"/>
-      <c r="AR18" s="91"/>
-      <c r="AS18" s="91"/>
-      <c r="AT18" s="91"/>
-      <c r="AU18" s="91"/>
-      <c r="AV18" s="91"/>
-      <c r="AW18" s="91"/>
-      <c r="AX18" s="91"/>
-      <c r="AY18" s="91"/>
-      <c r="AZ18" s="91"/>
-      <c r="BA18" s="91"/>
-      <c r="BB18" s="91"/>
-      <c r="BC18" s="91"/>
-      <c r="BD18" s="91"/>
-      <c r="BE18" s="91"/>
-      <c r="BF18" s="91"/>
-      <c r="BG18" s="91"/>
-      <c r="BH18" s="91"/>
-      <c r="BI18" s="91"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="94"/>
+      <c r="AH18" s="94"/>
+      <c r="AI18" s="94"/>
+      <c r="AJ18" s="94"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="94"/>
+      <c r="AN18" s="94"/>
+      <c r="AO18" s="94"/>
+      <c r="AP18" s="94"/>
+      <c r="AQ18" s="94"/>
+      <c r="AR18" s="94"/>
+      <c r="AS18" s="94"/>
+      <c r="AT18" s="94"/>
+      <c r="AU18" s="94"/>
+      <c r="AV18" s="94"/>
+      <c r="AW18" s="94"/>
+      <c r="AX18" s="94"/>
+      <c r="AY18" s="94"/>
+      <c r="AZ18" s="94"/>
+      <c r="BA18" s="94"/>
+      <c r="BB18" s="94"/>
+      <c r="BC18" s="94"/>
+      <c r="BD18" s="94"/>
+      <c r="BE18" s="94"/>
+      <c r="BF18" s="94"/>
+      <c r="BG18" s="94"/>
+      <c r="BH18" s="94"/>
+      <c r="BI18" s="94"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="91"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="91"/>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="91"/>
-      <c r="AA19" s="91"/>
-      <c r="AB19" s="91"/>
-      <c r="AC19" s="91"/>
-      <c r="AD19" s="91"/>
-      <c r="AE19" s="91"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="91"/>
-      <c r="AH19" s="91"/>
-      <c r="AI19" s="91"/>
-      <c r="AJ19" s="91"/>
-      <c r="AK19" s="91"/>
-      <c r="AL19" s="91"/>
-      <c r="AM19" s="91"/>
-      <c r="AN19" s="91"/>
-      <c r="AO19" s="91"/>
-      <c r="AP19" s="91"/>
-      <c r="AQ19" s="91"/>
-      <c r="AR19" s="91"/>
-      <c r="AS19" s="91"/>
-      <c r="AT19" s="91"/>
-      <c r="AU19" s="91"/>
-      <c r="AV19" s="91"/>
-      <c r="AW19" s="91"/>
-      <c r="AX19" s="91"/>
-      <c r="AY19" s="91"/>
-      <c r="AZ19" s="91"/>
-      <c r="BA19" s="91"/>
-      <c r="BB19" s="91"/>
-      <c r="BC19" s="91"/>
-      <c r="BD19" s="91"/>
-      <c r="BE19" s="91"/>
-      <c r="BF19" s="91"/>
-      <c r="BG19" s="91"/>
-      <c r="BH19" s="91"/>
-      <c r="BI19" s="91"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="94"/>
+      <c r="AH19" s="94"/>
+      <c r="AI19" s="94"/>
+      <c r="AJ19" s="94"/>
+      <c r="AK19" s="94"/>
+      <c r="AL19" s="94"/>
+      <c r="AM19" s="94"/>
+      <c r="AN19" s="94"/>
+      <c r="AO19" s="94"/>
+      <c r="AP19" s="94"/>
+      <c r="AQ19" s="94"/>
+      <c r="AR19" s="94"/>
+      <c r="AS19" s="94"/>
+      <c r="AT19" s="94"/>
+      <c r="AU19" s="94"/>
+      <c r="AV19" s="94"/>
+      <c r="AW19" s="94"/>
+      <c r="AX19" s="94"/>
+      <c r="AY19" s="94"/>
+      <c r="AZ19" s="94"/>
+      <c r="BA19" s="94"/>
+      <c r="BB19" s="94"/>
+      <c r="BC19" s="94"/>
+      <c r="BD19" s="94"/>
+      <c r="BE19" s="94"/>
+      <c r="BF19" s="94"/>
+      <c r="BG19" s="94"/>
+      <c r="BH19" s="94"/>
+      <c r="BI19" s="94"/>
     </row>
     <row r="20" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="91"/>
-      <c r="T20" s="91"/>
-      <c r="U20" s="91"/>
-      <c r="V20" s="91"/>
-      <c r="W20" s="91"/>
-      <c r="X20" s="91"/>
-      <c r="Y20" s="91"/>
-      <c r="Z20" s="91"/>
-      <c r="AA20" s="91"/>
-      <c r="AB20" s="91"/>
-      <c r="AC20" s="91"/>
-      <c r="AD20" s="91"/>
-      <c r="AE20" s="91"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="91"/>
-      <c r="AH20" s="91"/>
-      <c r="AI20" s="91"/>
-      <c r="AJ20" s="91"/>
-      <c r="AK20" s="91"/>
-      <c r="AL20" s="91"/>
-      <c r="AM20" s="91"/>
-      <c r="AN20" s="91"/>
-      <c r="AO20" s="91"/>
-      <c r="AP20" s="91"/>
-      <c r="AQ20" s="91"/>
-      <c r="AR20" s="91"/>
-      <c r="AS20" s="91"/>
-      <c r="AT20" s="91"/>
-      <c r="AU20" s="91"/>
-      <c r="AV20" s="91"/>
-      <c r="AW20" s="91"/>
-      <c r="AX20" s="91"/>
-      <c r="AY20" s="91"/>
-      <c r="AZ20" s="91"/>
-      <c r="BA20" s="91"/>
-      <c r="BB20" s="91"/>
-      <c r="BC20" s="91"/>
-      <c r="BD20" s="91"/>
-      <c r="BE20" s="91"/>
-      <c r="BF20" s="91"/>
-      <c r="BG20" s="91"/>
-      <c r="BH20" s="91"/>
-      <c r="BI20" s="91"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="94"/>
+      <c r="AH20" s="94"/>
+      <c r="AI20" s="94"/>
+      <c r="AJ20" s="94"/>
+      <c r="AK20" s="94"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="94"/>
+      <c r="AN20" s="94"/>
+      <c r="AO20" s="94"/>
+      <c r="AP20" s="94"/>
+      <c r="AQ20" s="94"/>
+      <c r="AR20" s="94"/>
+      <c r="AS20" s="94"/>
+      <c r="AT20" s="94"/>
+      <c r="AU20" s="94"/>
+      <c r="AV20" s="94"/>
+      <c r="AW20" s="94"/>
+      <c r="AX20" s="94"/>
+      <c r="AY20" s="94"/>
+      <c r="AZ20" s="94"/>
+      <c r="BA20" s="94"/>
+      <c r="BB20" s="94"/>
+      <c r="BC20" s="94"/>
+      <c r="BD20" s="94"/>
+      <c r="BE20" s="94"/>
+      <c r="BF20" s="94"/>
+      <c r="BG20" s="94"/>
+      <c r="BH20" s="94"/>
+      <c r="BI20" s="94"/>
     </row>
     <row r="21" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="91"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="91"/>
-      <c r="AB21" s="91"/>
-      <c r="AC21" s="91"/>
-      <c r="AD21" s="91"/>
-      <c r="AE21" s="91"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="91"/>
-      <c r="AH21" s="91"/>
-      <c r="AI21" s="91"/>
-      <c r="AJ21" s="91"/>
-      <c r="AK21" s="91"/>
-      <c r="AL21" s="91"/>
-      <c r="AM21" s="91"/>
-      <c r="AN21" s="91"/>
-      <c r="AO21" s="91"/>
-      <c r="AP21" s="91"/>
-      <c r="AQ21" s="91"/>
-      <c r="AR21" s="91"/>
-      <c r="AS21" s="91"/>
-      <c r="AT21" s="91"/>
-      <c r="AU21" s="91"/>
-      <c r="AV21" s="91"/>
-      <c r="AW21" s="91"/>
-      <c r="AX21" s="91"/>
-      <c r="AY21" s="91"/>
-      <c r="AZ21" s="91"/>
-      <c r="BA21" s="91"/>
-      <c r="BB21" s="91"/>
-      <c r="BC21" s="91"/>
-      <c r="BD21" s="91"/>
-      <c r="BE21" s="91"/>
-      <c r="BF21" s="91"/>
-      <c r="BG21" s="91"/>
-      <c r="BH21" s="91"/>
-      <c r="BI21" s="91"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="94"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="94"/>
+      <c r="AH21" s="94"/>
+      <c r="AI21" s="94"/>
+      <c r="AJ21" s="94"/>
+      <c r="AK21" s="94"/>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="94"/>
+      <c r="AN21" s="94"/>
+      <c r="AO21" s="94"/>
+      <c r="AP21" s="94"/>
+      <c r="AQ21" s="94"/>
+      <c r="AR21" s="94"/>
+      <c r="AS21" s="94"/>
+      <c r="AT21" s="94"/>
+      <c r="AU21" s="94"/>
+      <c r="AV21" s="94"/>
+      <c r="AW21" s="94"/>
+      <c r="AX21" s="94"/>
+      <c r="AY21" s="94"/>
+      <c r="AZ21" s="94"/>
+      <c r="BA21" s="94"/>
+      <c r="BB21" s="94"/>
+      <c r="BC21" s="94"/>
+      <c r="BD21" s="94"/>
+      <c r="BE21" s="94"/>
+      <c r="BF21" s="94"/>
+      <c r="BG21" s="94"/>
+      <c r="BH21" s="94"/>
+      <c r="BI21" s="94"/>
     </row>
     <row r="22" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="91"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="91"/>
-      <c r="AA22" s="91"/>
-      <c r="AB22" s="91"/>
-      <c r="AC22" s="91"/>
-      <c r="AD22" s="91"/>
-      <c r="AE22" s="91"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="91"/>
-      <c r="AH22" s="91"/>
-      <c r="AI22" s="91"/>
-      <c r="AJ22" s="91"/>
-      <c r="AK22" s="91"/>
-      <c r="AL22" s="91"/>
-      <c r="AM22" s="91"/>
-      <c r="AN22" s="91"/>
-      <c r="AO22" s="91"/>
-      <c r="AP22" s="91"/>
-      <c r="AQ22" s="91"/>
-      <c r="AR22" s="91"/>
-      <c r="AS22" s="91"/>
-      <c r="AT22" s="91"/>
-      <c r="AU22" s="91"/>
-      <c r="AV22" s="91"/>
-      <c r="AW22" s="91"/>
-      <c r="AX22" s="91"/>
-      <c r="AY22" s="91"/>
-      <c r="AZ22" s="91"/>
-      <c r="BA22" s="91"/>
-      <c r="BB22" s="91"/>
-      <c r="BC22" s="91"/>
-      <c r="BD22" s="91"/>
-      <c r="BE22" s="91"/>
-      <c r="BF22" s="91"/>
-      <c r="BG22" s="91"/>
-      <c r="BH22" s="91"/>
-      <c r="BI22" s="91"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="94"/>
+      <c r="AE22" s="94"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="94"/>
+      <c r="AH22" s="94"/>
+      <c r="AI22" s="94"/>
+      <c r="AJ22" s="94"/>
+      <c r="AK22" s="94"/>
+      <c r="AL22" s="94"/>
+      <c r="AM22" s="94"/>
+      <c r="AN22" s="94"/>
+      <c r="AO22" s="94"/>
+      <c r="AP22" s="94"/>
+      <c r="AQ22" s="94"/>
+      <c r="AR22" s="94"/>
+      <c r="AS22" s="94"/>
+      <c r="AT22" s="94"/>
+      <c r="AU22" s="94"/>
+      <c r="AV22" s="94"/>
+      <c r="AW22" s="94"/>
+      <c r="AX22" s="94"/>
+      <c r="AY22" s="94"/>
+      <c r="AZ22" s="94"/>
+      <c r="BA22" s="94"/>
+      <c r="BB22" s="94"/>
+      <c r="BC22" s="94"/>
+      <c r="BD22" s="94"/>
+      <c r="BE22" s="94"/>
+      <c r="BF22" s="94"/>
+      <c r="BG22" s="94"/>
+      <c r="BH22" s="94"/>
+      <c r="BI22" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AO12:BI12"/>
+    <mergeCell ref="A17:BI22"/>
+    <mergeCell ref="A16:BI16"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AN14"/>
+    <mergeCell ref="AO14:BI14"/>
+    <mergeCell ref="AE10:AN10"/>
+    <mergeCell ref="AO10:BI10"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="AE13:AN13"/>
+    <mergeCell ref="AO13:BI13"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AN11"/>
+    <mergeCell ref="AO11:BI11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AN12"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:AC6"/>
+    <mergeCell ref="AD6:AI6"/>
+    <mergeCell ref="AJ6:BI6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AN8"/>
+    <mergeCell ref="AO8:BI8"/>
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="K9:T9"/>
@@ -3563,46 +3635,12 @@
     <mergeCell ref="AE2:AP2"/>
     <mergeCell ref="AQ2:AS2"/>
     <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:AC6"/>
-    <mergeCell ref="AD6:AI6"/>
-    <mergeCell ref="AJ6:BI6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AN8"/>
-    <mergeCell ref="AO8:BI8"/>
-    <mergeCell ref="AE10:AN10"/>
-    <mergeCell ref="AO10:BI10"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="AE13:AN13"/>
-    <mergeCell ref="AO13:BI13"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AN11"/>
-    <mergeCell ref="AO11:BI11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="AE12:AN12"/>
-    <mergeCell ref="AO12:BI12"/>
-    <mergeCell ref="A17:BI22"/>
-    <mergeCell ref="A16:BI16"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AN14"/>
-    <mergeCell ref="AO14:BI14"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3640,71 +3678,71 @@
       <c r="J1" s="95"/>
       <c r="K1" s="95"/>
       <c r="L1" s="95"/>
-      <c r="M1" s="97" t="s">
+      <c r="M1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="96" t="s">
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="97" t="s">
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="96" t="s">
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="97" t="s">
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="96" t="s">
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="96"/>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="97" t="s">
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="97"/>
-      <c r="BC1" s="97"/>
-      <c r="BD1" s="94">
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="93">
         <v>45554</v>
       </c>
-      <c r="BE1" s="94"/>
-      <c r="BF1" s="94"/>
-      <c r="BG1" s="94"/>
-      <c r="BH1" s="94"/>
-      <c r="BI1" s="94"/>
+      <c r="BE1" s="93"/>
+      <c r="BF1" s="93"/>
+      <c r="BG1" s="93"/>
+      <c r="BH1" s="93"/>
+      <c r="BI1" s="93"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -3916,66 +3954,66 @@
       <c r="J2" s="95"/>
       <c r="K2" s="95"/>
       <c r="L2" s="95"/>
-      <c r="M2" s="97" t="s">
+      <c r="M2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="97" t="s">
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="96" t="str">
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="92" t="str">
         <f>クラス仕様!G5</f>
         <v>SerchResultServlet</v>
       </c>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
-      <c r="AM2" s="96"/>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="96"/>
-      <c r="AP2" s="96"/>
-      <c r="AQ2" s="97" t="s">
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="96"/>
-      <c r="AU2" s="96"/>
-      <c r="AV2" s="96"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="96"/>
-      <c r="AY2" s="96"/>
-      <c r="AZ2" s="96"/>
-      <c r="BA2" s="97" t="s">
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="92"/>
+      <c r="AY2" s="92"/>
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="97"/>
-      <c r="BC2" s="97"/>
-      <c r="BD2" s="94"/>
-      <c r="BE2" s="94"/>
-      <c r="BF2" s="94"/>
-      <c r="BG2" s="94"/>
-      <c r="BH2" s="94"/>
-      <c r="BI2" s="94"/>
+      <c r="BB2" s="91"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="93"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="93"/>
+      <c r="BG2" s="93"/>
+      <c r="BH2" s="93"/>
+      <c r="BI2" s="93"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -4175,71 +4213,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="92" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="92"/>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="92"/>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98"/>
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="98"/>
+      <c r="AT4" s="98"/>
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="98"/>
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="98"/>
+      <c r="AZ4" s="98"/>
+      <c r="BA4" s="98"/>
+      <c r="BB4" s="98"/>
+      <c r="BC4" s="98"/>
+      <c r="BD4" s="98"/>
+      <c r="BE4" s="98"/>
+      <c r="BF4" s="98"/>
+      <c r="BG4" s="98"/>
+      <c r="BH4" s="98"/>
+      <c r="BI4" s="98"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -4439,71 +4477,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="92" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="92"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="92"/>
-      <c r="AM5" s="92"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="92"/>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="92"/>
-      <c r="AW5" s="92"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="92"/>
-      <c r="AZ5" s="92"/>
-      <c r="BA5" s="92"/>
-      <c r="BB5" s="92"/>
-      <c r="BC5" s="92"/>
-      <c r="BD5" s="92"/>
-      <c r="BE5" s="92"/>
-      <c r="BF5" s="92"/>
-      <c r="BG5" s="92"/>
-      <c r="BH5" s="92"/>
-      <c r="BI5" s="92"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="98"/>
+      <c r="AE5" s="98"/>
+      <c r="AF5" s="98"/>
+      <c r="AG5" s="98"/>
+      <c r="AH5" s="98"/>
+      <c r="AI5" s="98"/>
+      <c r="AJ5" s="98"/>
+      <c r="AK5" s="98"/>
+      <c r="AL5" s="98"/>
+      <c r="AM5" s="98"/>
+      <c r="AN5" s="98"/>
+      <c r="AO5" s="98"/>
+      <c r="AP5" s="98"/>
+      <c r="AQ5" s="98"/>
+      <c r="AR5" s="98"/>
+      <c r="AS5" s="98"/>
+      <c r="AT5" s="98"/>
+      <c r="AU5" s="98"/>
+      <c r="AV5" s="98"/>
+      <c r="AW5" s="98"/>
+      <c r="AX5" s="98"/>
+      <c r="AY5" s="98"/>
+      <c r="AZ5" s="98"/>
+      <c r="BA5" s="98"/>
+      <c r="BB5" s="98"/>
+      <c r="BC5" s="98"/>
+      <c r="BD5" s="98"/>
+      <c r="BE5" s="98"/>
+      <c r="BF5" s="98"/>
+      <c r="BG5" s="98"/>
+      <c r="BH5" s="98"/>
+      <c r="BI5" s="98"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -17485,6 +17523,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:O9"/>
     <mergeCell ref="P9:AD9"/>
@@ -17501,35 +17568,6 @@
     <mergeCell ref="AE11:BI11"/>
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="S13:AS13"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -17546,10 +17584,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IW54"/>
+  <dimension ref="A1:IW56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC47" sqref="AC47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10:AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17575,72 +17613,72 @@
       <c r="H1" s="95"/>
       <c r="I1" s="95"/>
       <c r="J1" s="95"/>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="96" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="97" t="s">
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="96" t="s">
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="97" t="s">
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="97"/>
-      <c r="AU1" s="96" t="s">
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="97" t="s">
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="97"/>
-      <c r="BC1" s="97"/>
-      <c r="BD1" s="94">
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="93">
         <v>45554</v>
       </c>
-      <c r="BE1" s="94"/>
-      <c r="BF1" s="94"/>
-      <c r="BG1" s="94"/>
-      <c r="BH1" s="94"/>
+      <c r="BE1" s="93"/>
+      <c r="BF1" s="93"/>
+      <c r="BG1" s="93"/>
+      <c r="BH1" s="93"/>
       <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
@@ -17850,67 +17888,67 @@
       <c r="H2" s="95"/>
       <c r="I2" s="95"/>
       <c r="J2" s="95"/>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="97" t="s">
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="96" t="str">
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="92" t="str">
         <f>クラス仕様!G5</f>
         <v>SerchResultServlet</v>
       </c>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
-      <c r="AM2" s="96"/>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="97" t="s">
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="96"/>
-      <c r="AV2" s="96"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="96"/>
-      <c r="AY2" s="96"/>
-      <c r="AZ2" s="96"/>
-      <c r="BA2" s="97" t="s">
+      <c r="AP2" s="91"/>
+      <c r="AQ2" s="91"/>
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="91"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="92"/>
+      <c r="AY2" s="92"/>
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="97"/>
-      <c r="BC2" s="97"/>
-      <c r="BD2" s="94"/>
-      <c r="BE2" s="94"/>
-      <c r="BF2" s="94"/>
-      <c r="BG2" s="94"/>
-      <c r="BH2" s="94"/>
+      <c r="BB2" s="91"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="93"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="93"/>
+      <c r="BG2" s="93"/>
+      <c r="BH2" s="93"/>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
@@ -18110,70 +18148,70 @@
       <c r="IW2" s="1"/>
     </row>
     <row r="4" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="92" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="92"/>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="92"/>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98"/>
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="98"/>
+      <c r="AT4" s="98"/>
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="98"/>
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="98"/>
+      <c r="AZ4" s="98"/>
+      <c r="BA4" s="98"/>
+      <c r="BB4" s="98"/>
+      <c r="BC4" s="98"/>
+      <c r="BD4" s="98"/>
+      <c r="BE4" s="98"/>
+      <c r="BF4" s="98"/>
+      <c r="BG4" s="98"/>
+      <c r="BH4" s="98"/>
       <c r="BI4" s="1"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
@@ -18373,70 +18411,70 @@
       <c r="IW4" s="1"/>
     </row>
     <row r="5" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="92" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="92"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="92"/>
-      <c r="AM5" s="92"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="92"/>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="92"/>
-      <c r="AW5" s="92"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="92"/>
-      <c r="AZ5" s="92"/>
-      <c r="BA5" s="92"/>
-      <c r="BB5" s="92"/>
-      <c r="BC5" s="92"/>
-      <c r="BD5" s="92"/>
-      <c r="BE5" s="92"/>
-      <c r="BF5" s="92"/>
-      <c r="BG5" s="92"/>
-      <c r="BH5" s="92"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="98"/>
+      <c r="AE5" s="98"/>
+      <c r="AF5" s="98"/>
+      <c r="AG5" s="98"/>
+      <c r="AH5" s="98"/>
+      <c r="AI5" s="98"/>
+      <c r="AJ5" s="98"/>
+      <c r="AK5" s="98"/>
+      <c r="AL5" s="98"/>
+      <c r="AM5" s="98"/>
+      <c r="AN5" s="98"/>
+      <c r="AO5" s="98"/>
+      <c r="AP5" s="98"/>
+      <c r="AQ5" s="98"/>
+      <c r="AR5" s="98"/>
+      <c r="AS5" s="98"/>
+      <c r="AT5" s="98"/>
+      <c r="AU5" s="98"/>
+      <c r="AV5" s="98"/>
+      <c r="AW5" s="98"/>
+      <c r="AX5" s="98"/>
+      <c r="AY5" s="98"/>
+      <c r="AZ5" s="98"/>
+      <c r="BA5" s="98"/>
+      <c r="BB5" s="98"/>
+      <c r="BC5" s="98"/>
+      <c r="BD5" s="98"/>
+      <c r="BE5" s="98"/>
+      <c r="BF5" s="98"/>
+      <c r="BG5" s="98"/>
+      <c r="BH5" s="98"/>
       <c r="BI5" s="1"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
@@ -19697,12 +19735,12 @@
     </row>
     <row r="10" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="99" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B10" s="99"/>
       <c r="C10" s="99"/>
       <c r="D10" s="100" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
@@ -19715,7 +19753,7 @@
       <c r="M10" s="100"/>
       <c r="N10" s="100"/>
       <c r="O10" s="100" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="P10" s="100"/>
       <c r="Q10" s="100"/>
@@ -19731,7 +19769,7 @@
       <c r="AA10" s="100"/>
       <c r="AB10" s="100"/>
       <c r="AC10" s="100" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="AD10" s="100"/>
       <c r="AE10" s="100"/>
@@ -19964,12 +20002,12 @@
     </row>
     <row r="11" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="99" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B11" s="99"/>
       <c r="C11" s="99"/>
       <c r="D11" s="100" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="100"/>
@@ -19982,7 +20020,7 @@
       <c r="M11" s="100"/>
       <c r="N11" s="100"/>
       <c r="O11" s="100" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P11" s="100"/>
       <c r="Q11" s="100"/>
@@ -19998,7 +20036,7 @@
       <c r="AA11" s="100"/>
       <c r="AB11" s="100"/>
       <c r="AC11" s="100" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="AD11" s="100"/>
       <c r="AE11" s="100"/>
@@ -20231,12 +20269,12 @@
     </row>
     <row r="12" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="99" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B12" s="99"/>
       <c r="C12" s="99"/>
       <c r="D12" s="100" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E12" s="100"/>
       <c r="F12" s="100"/>
@@ -20249,7 +20287,7 @@
       <c r="M12" s="100"/>
       <c r="N12" s="100"/>
       <c r="O12" s="100" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P12" s="100"/>
       <c r="Q12" s="100"/>
@@ -20265,7 +20303,7 @@
       <c r="AA12" s="100"/>
       <c r="AB12" s="100"/>
       <c r="AC12" s="100" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AD12" s="100"/>
       <c r="AE12" s="100"/>
@@ -20496,14 +20534,14 @@
       <c r="IV12" s="1"/>
       <c r="IW12" s="1"/>
     </row>
-    <row r="13" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:257" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="99" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B13" s="99"/>
       <c r="C13" s="99"/>
       <c r="D13" s="100" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E13" s="100"/>
       <c r="F13" s="100"/>
@@ -20516,7 +20554,7 @@
       <c r="M13" s="100"/>
       <c r="N13" s="100"/>
       <c r="O13" s="100" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P13" s="100"/>
       <c r="Q13" s="100"/>
@@ -20531,8 +20569,8 @@
       <c r="Z13" s="100"/>
       <c r="AA13" s="100"/>
       <c r="AB13" s="100"/>
-      <c r="AC13" s="100" t="s">
-        <v>106</v>
+      <c r="AC13" s="104" t="s">
+        <v>107</v>
       </c>
       <c r="AD13" s="100"/>
       <c r="AE13" s="100"/>
@@ -20763,14 +20801,14 @@
       <c r="IV13" s="1"/>
       <c r="IW13" s="1"/>
     </row>
-    <row r="14" spans="1:257" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="99" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B14" s="99"/>
       <c r="C14" s="99"/>
       <c r="D14" s="100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="100"/>
       <c r="F14" s="100"/>
@@ -20798,8 +20836,8 @@
       <c r="Z14" s="100"/>
       <c r="AA14" s="100"/>
       <c r="AB14" s="100"/>
-      <c r="AC14" s="104" t="s">
-        <v>114</v>
+      <c r="AC14" s="100" t="s">
+        <v>101</v>
       </c>
       <c r="AD14" s="100"/>
       <c r="AE14" s="100"/>
@@ -21032,12 +21070,12 @@
     </row>
     <row r="15" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="99" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B15" s="99"/>
       <c r="C15" s="99"/>
       <c r="D15" s="100" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E15" s="100"/>
       <c r="F15" s="100"/>
@@ -21050,7 +21088,7 @@
       <c r="M15" s="100"/>
       <c r="N15" s="100"/>
       <c r="O15" s="100" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="P15" s="100"/>
       <c r="Q15" s="100"/>
@@ -21066,7 +21104,7 @@
       <c r="AA15" s="100"/>
       <c r="AB15" s="100"/>
       <c r="AC15" s="100" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AD15" s="100"/>
       <c r="AE15" s="100"/>
@@ -21299,12 +21337,12 @@
     </row>
     <row r="16" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="99" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B16" s="99"/>
       <c r="C16" s="99"/>
       <c r="D16" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="100"/>
       <c r="F16" s="100"/>
@@ -21317,7 +21355,7 @@
       <c r="M16" s="100"/>
       <c r="N16" s="100"/>
       <c r="O16" s="100" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P16" s="100"/>
       <c r="Q16" s="100"/>
@@ -21333,7 +21371,7 @@
       <c r="AA16" s="100"/>
       <c r="AB16" s="100"/>
       <c r="AC16" s="100" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AD16" s="100"/>
       <c r="AE16" s="100"/>
@@ -21566,12 +21604,12 @@
     </row>
     <row r="17" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="99" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="B17" s="99"/>
       <c r="C17" s="99"/>
       <c r="D17" s="100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="100"/>
       <c r="F17" s="100"/>
@@ -21584,7 +21622,7 @@
       <c r="M17" s="100"/>
       <c r="N17" s="100"/>
       <c r="O17" s="100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P17" s="100"/>
       <c r="Q17" s="100"/>
@@ -21600,7 +21638,7 @@
       <c r="AA17" s="100"/>
       <c r="AB17" s="100"/>
       <c r="AC17" s="100" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="AD17" s="100"/>
       <c r="AE17" s="100"/>
@@ -21838,7 +21876,7 @@
       <c r="B18" s="99"/>
       <c r="C18" s="99"/>
       <c r="D18" s="100" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="E18" s="100"/>
       <c r="F18" s="100"/>
@@ -21851,7 +21889,7 @@
       <c r="M18" s="100"/>
       <c r="N18" s="100"/>
       <c r="O18" s="100" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="P18" s="100"/>
       <c r="Q18" s="100"/>
@@ -21866,40 +21904,40 @@
       <c r="Z18" s="100"/>
       <c r="AA18" s="100"/>
       <c r="AB18" s="100"/>
-      <c r="AC18" s="100" t="s">
-        <v>111</v>
+      <c r="AC18" s="104" t="s">
+        <v>30</v>
       </c>
-      <c r="AD18" s="100"/>
-      <c r="AE18" s="100"/>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="100"/>
-      <c r="AH18" s="100"/>
-      <c r="AI18" s="100"/>
-      <c r="AJ18" s="100"/>
-      <c r="AK18" s="100"/>
-      <c r="AL18" s="100"/>
-      <c r="AM18" s="100"/>
-      <c r="AN18" s="100"/>
-      <c r="AO18" s="100"/>
-      <c r="AP18" s="100"/>
-      <c r="AQ18" s="100"/>
-      <c r="AR18" s="100"/>
-      <c r="AS18" s="100"/>
-      <c r="AT18" s="100"/>
-      <c r="AU18" s="100"/>
-      <c r="AV18" s="100"/>
-      <c r="AW18" s="100"/>
-      <c r="AX18" s="100"/>
-      <c r="AY18" s="100"/>
-      <c r="AZ18" s="100"/>
-      <c r="BA18" s="100"/>
-      <c r="BB18" s="100"/>
-      <c r="BC18" s="100"/>
-      <c r="BD18" s="100"/>
-      <c r="BE18" s="100"/>
-      <c r="BF18" s="100"/>
-      <c r="BG18" s="100"/>
-      <c r="BH18" s="100"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="104"/>
+      <c r="AG18" s="104"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="104"/>
+      <c r="AJ18" s="104"/>
+      <c r="AK18" s="104"/>
+      <c r="AL18" s="104"/>
+      <c r="AM18" s="104"/>
+      <c r="AN18" s="104"/>
+      <c r="AO18" s="104"/>
+      <c r="AP18" s="104"/>
+      <c r="AQ18" s="104"/>
+      <c r="AR18" s="104"/>
+      <c r="AS18" s="104"/>
+      <c r="AT18" s="104"/>
+      <c r="AU18" s="104"/>
+      <c r="AV18" s="104"/>
+      <c r="AW18" s="104"/>
+      <c r="AX18" s="104"/>
+      <c r="AY18" s="104"/>
+      <c r="AZ18" s="104"/>
+      <c r="BA18" s="104"/>
+      <c r="BB18" s="104"/>
+      <c r="BC18" s="104"/>
+      <c r="BD18" s="104"/>
+      <c r="BE18" s="104"/>
+      <c r="BF18" s="104"/>
+      <c r="BG18" s="104"/>
+      <c r="BH18" s="104"/>
       <c r="BI18" s="1"/>
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
@@ -22118,7 +22156,7 @@
       <c r="M19" s="100"/>
       <c r="N19" s="100"/>
       <c r="O19" s="100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P19" s="100"/>
       <c r="Q19" s="100"/>
@@ -22133,40 +22171,40 @@
       <c r="Z19" s="100"/>
       <c r="AA19" s="100"/>
       <c r="AB19" s="100"/>
-      <c r="AC19" s="104" t="s">
-        <v>30</v>
+      <c r="AC19" s="100" t="s">
+        <v>32</v>
       </c>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="104"/>
-      <c r="AF19" s="104"/>
-      <c r="AG19" s="104"/>
-      <c r="AH19" s="104"/>
-      <c r="AI19" s="104"/>
-      <c r="AJ19" s="104"/>
-      <c r="AK19" s="104"/>
-      <c r="AL19" s="104"/>
-      <c r="AM19" s="104"/>
-      <c r="AN19" s="104"/>
-      <c r="AO19" s="104"/>
-      <c r="AP19" s="104"/>
-      <c r="AQ19" s="104"/>
-      <c r="AR19" s="104"/>
-      <c r="AS19" s="104"/>
-      <c r="AT19" s="104"/>
-      <c r="AU19" s="104"/>
-      <c r="AV19" s="104"/>
-      <c r="AW19" s="104"/>
-      <c r="AX19" s="104"/>
-      <c r="AY19" s="104"/>
-      <c r="AZ19" s="104"/>
-      <c r="BA19" s="104"/>
-      <c r="BB19" s="104"/>
-      <c r="BC19" s="104"/>
-      <c r="BD19" s="104"/>
-      <c r="BE19" s="104"/>
-      <c r="BF19" s="104"/>
-      <c r="BG19" s="104"/>
-      <c r="BH19" s="104"/>
+      <c r="AD19" s="100"/>
+      <c r="AE19" s="100"/>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="100"/>
+      <c r="AH19" s="100"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="100"/>
+      <c r="AK19" s="100"/>
+      <c r="AL19" s="100"/>
+      <c r="AM19" s="100"/>
+      <c r="AN19" s="100"/>
+      <c r="AO19" s="100"/>
+      <c r="AP19" s="100"/>
+      <c r="AQ19" s="100"/>
+      <c r="AR19" s="100"/>
+      <c r="AS19" s="100"/>
+      <c r="AT19" s="100"/>
+      <c r="AU19" s="100"/>
+      <c r="AV19" s="100"/>
+      <c r="AW19" s="100"/>
+      <c r="AX19" s="100"/>
+      <c r="AY19" s="100"/>
+      <c r="AZ19" s="100"/>
+      <c r="BA19" s="100"/>
+      <c r="BB19" s="100"/>
+      <c r="BC19" s="100"/>
+      <c r="BD19" s="100"/>
+      <c r="BE19" s="100"/>
+      <c r="BF19" s="100"/>
+      <c r="BG19" s="100"/>
+      <c r="BH19" s="100"/>
       <c r="BI19" s="1"/>
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
@@ -22366,74 +22404,66 @@
       <c r="IW19" s="1"/>
     </row>
     <row r="20" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="100"/>
-      <c r="Z20" s="100"/>
-      <c r="AA20" s="100"/>
-      <c r="AB20" s="100"/>
-      <c r="AC20" s="100" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD20" s="100"/>
-      <c r="AE20" s="100"/>
-      <c r="AF20" s="100"/>
-      <c r="AG20" s="100"/>
-      <c r="AH20" s="100"/>
-      <c r="AI20" s="100"/>
-      <c r="AJ20" s="100"/>
-      <c r="AK20" s="100"/>
-      <c r="AL20" s="100"/>
-      <c r="AM20" s="100"/>
-      <c r="AN20" s="100"/>
-      <c r="AO20" s="100"/>
-      <c r="AP20" s="100"/>
-      <c r="AQ20" s="100"/>
-      <c r="AR20" s="100"/>
-      <c r="AS20" s="100"/>
-      <c r="AT20" s="100"/>
-      <c r="AU20" s="100"/>
-      <c r="AV20" s="100"/>
-      <c r="AW20" s="100"/>
-      <c r="AX20" s="100"/>
-      <c r="AY20" s="100"/>
-      <c r="AZ20" s="100"/>
-      <c r="BA20" s="100"/>
-      <c r="BB20" s="100"/>
-      <c r="BC20" s="100"/>
-      <c r="BD20" s="100"/>
-      <c r="BE20" s="100"/>
-      <c r="BF20" s="100"/>
-      <c r="BG20" s="100"/>
-      <c r="BH20" s="100"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
       <c r="BI20" s="1"/>
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
@@ -22633,66 +22663,74 @@
       <c r="IW20" s="1"/>
     </row>
     <row r="21" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="3"/>
-      <c r="BC21" s="3"/>
-      <c r="BD21" s="3"/>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="3"/>
-      <c r="BG21" s="3"/>
-      <c r="BH21" s="3"/>
+      <c r="A21" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="106"/>
+      <c r="AD21" s="106"/>
+      <c r="AE21" s="106"/>
+      <c r="AF21" s="106"/>
+      <c r="AG21" s="106"/>
+      <c r="AH21" s="106"/>
+      <c r="AI21" s="106"/>
+      <c r="AJ21" s="106"/>
+      <c r="AK21" s="106"/>
+      <c r="AL21" s="106"/>
+      <c r="AM21" s="106"/>
+      <c r="AN21" s="106"/>
+      <c r="AO21" s="106"/>
+      <c r="AP21" s="106"/>
+      <c r="AQ21" s="106"/>
+      <c r="AR21" s="106"/>
+      <c r="AS21" s="106"/>
+      <c r="AT21" s="108"/>
+      <c r="AU21" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV21" s="102"/>
+      <c r="AW21" s="102"/>
+      <c r="AX21" s="102"/>
+      <c r="AY21" s="102"/>
+      <c r="AZ21" s="102"/>
+      <c r="BA21" s="102"/>
+      <c r="BB21" s="102"/>
+      <c r="BC21" s="102"/>
+      <c r="BD21" s="102"/>
+      <c r="BE21" s="102"/>
+      <c r="BF21" s="102"/>
+      <c r="BG21" s="102"/>
+      <c r="BH21" s="103"/>
       <c r="BI21" s="1"/>
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
@@ -22892,74 +22930,72 @@
       <c r="IW21" s="1"/>
     </row>
     <row r="22" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="109" t="s">
-        <v>33</v>
+      <c r="A22" s="85" t="s">
+        <v>110</v>
       </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="105" t="s">
-        <v>48</v>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="64">
+        <v>1</v>
       </c>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="109" t="s">
-        <v>51</v>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="54" t="s">
+        <v>52</v>
       </c>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="106"/>
-      <c r="AC22" s="106"/>
-      <c r="AD22" s="106"/>
-      <c r="AE22" s="106"/>
-      <c r="AF22" s="106"/>
-      <c r="AG22" s="106"/>
-      <c r="AH22" s="106"/>
-      <c r="AI22" s="106"/>
-      <c r="AJ22" s="106"/>
-      <c r="AK22" s="106"/>
-      <c r="AL22" s="106"/>
-      <c r="AM22" s="106"/>
-      <c r="AN22" s="106"/>
-      <c r="AO22" s="106"/>
-      <c r="AP22" s="106"/>
-      <c r="AQ22" s="106"/>
-      <c r="AR22" s="106"/>
-      <c r="AS22" s="106"/>
-      <c r="AT22" s="108"/>
-      <c r="AU22" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="AV22" s="102"/>
-      <c r="AW22" s="102"/>
-      <c r="AX22" s="102"/>
-      <c r="AY22" s="102"/>
-      <c r="AZ22" s="102"/>
-      <c r="BA22" s="102"/>
-      <c r="BB22" s="102"/>
-      <c r="BC22" s="102"/>
-      <c r="BD22" s="102"/>
-      <c r="BE22" s="102"/>
-      <c r="BF22" s="102"/>
-      <c r="BG22" s="102"/>
-      <c r="BH22" s="103"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="70"/>
+      <c r="AL22" s="70"/>
+      <c r="AM22" s="70"/>
+      <c r="AN22" s="70"/>
+      <c r="AO22" s="70"/>
+      <c r="AP22" s="70"/>
+      <c r="AQ22" s="70"/>
+      <c r="AR22" s="70"/>
+      <c r="AS22" s="70"/>
+      <c r="AT22" s="71"/>
+      <c r="AU22" s="22"/>
+      <c r="AV22" s="25"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="5"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5"/>
+      <c r="BE22" s="5"/>
+      <c r="BF22" s="5"/>
+      <c r="BG22" s="5"/>
+      <c r="BH22" s="55"/>
       <c r="BI22" s="1"/>
       <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
@@ -23159,72 +23195,68 @@
       <c r="IW22" s="1"/>
     </row>
     <row r="23" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="64">
-        <v>1</v>
+      <c r="A23" s="85"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="66" t="s">
+        <v>49</v>
       </c>
       <c r="P23" s="76"/>
       <c r="Q23" s="76"/>
       <c r="R23" s="65"/>
-      <c r="S23" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="70"/>
-      <c r="AK23" s="70"/>
-      <c r="AL23" s="70"/>
-      <c r="AM23" s="70"/>
-      <c r="AN23" s="70"/>
-      <c r="AO23" s="70"/>
-      <c r="AP23" s="70"/>
-      <c r="AQ23" s="70"/>
-      <c r="AR23" s="70"/>
-      <c r="AS23" s="70"/>
-      <c r="AT23" s="71"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="22"/>
+      <c r="AO23" s="22"/>
+      <c r="AP23" s="22"/>
+      <c r="AQ23" s="22"/>
+      <c r="AR23" s="22"/>
+      <c r="AS23" s="22"/>
+      <c r="AT23" s="72"/>
       <c r="AU23" s="22"/>
-      <c r="AV23" s="25"/>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="5"/>
-      <c r="AY23" s="5"/>
-      <c r="AZ23" s="5"/>
-      <c r="BA23" s="5"/>
-      <c r="BB23" s="5"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="5"/>
-      <c r="BE23" s="5"/>
-      <c r="BF23" s="5"/>
-      <c r="BG23" s="5"/>
-      <c r="BH23" s="55"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="9"/>
+      <c r="BH23" s="41"/>
       <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
@@ -23424,7 +23456,7 @@
       <c r="IW23" s="1"/>
     </row>
     <row r="24" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="85"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="76"/>
       <c r="C24" s="76"/>
       <c r="D24" s="76"/>
@@ -23438,40 +23470,40 @@
       <c r="L24" s="76"/>
       <c r="M24" s="76"/>
       <c r="N24" s="76"/>
-      <c r="O24" s="66" t="s">
-        <v>49</v>
+      <c r="O24" s="67" t="s">
+        <v>50</v>
       </c>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="23"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="22"/>
-      <c r="AL24" s="22"/>
-      <c r="AM24" s="22"/>
-      <c r="AN24" s="22"/>
-      <c r="AO24" s="22"/>
-      <c r="AP24" s="22"/>
-      <c r="AQ24" s="22"/>
-      <c r="AR24" s="22"/>
-      <c r="AS24" s="22"/>
-      <c r="AT24" s="72"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="80"/>
+      <c r="AC24" s="80"/>
+      <c r="AD24" s="80"/>
+      <c r="AE24" s="80"/>
+      <c r="AF24" s="80"/>
+      <c r="AG24" s="80"/>
+      <c r="AH24" s="80"/>
+      <c r="AI24" s="80"/>
+      <c r="AJ24" s="46"/>
+      <c r="AK24" s="46"/>
+      <c r="AL24" s="46"/>
+      <c r="AM24" s="46"/>
+      <c r="AN24" s="46"/>
+      <c r="AO24" s="46"/>
+      <c r="AP24" s="46"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="46"/>
+      <c r="AS24" s="46"/>
+      <c r="AT24" s="73"/>
       <c r="AU24" s="22"/>
       <c r="AV24" s="22"/>
       <c r="AW24" s="9"/>
@@ -23699,41 +23731,43 @@
       <c r="L25" s="76"/>
       <c r="M25" s="76"/>
       <c r="N25" s="76"/>
-      <c r="O25" s="67" t="s">
-        <v>50</v>
+      <c r="O25" s="64">
+        <v>2</v>
       </c>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="80"/>
-      <c r="Z25" s="80"/>
-      <c r="AA25" s="80"/>
-      <c r="AB25" s="80"/>
-      <c r="AC25" s="80"/>
-      <c r="AD25" s="80"/>
-      <c r="AE25" s="80"/>
-      <c r="AF25" s="80"/>
-      <c r="AG25" s="80"/>
-      <c r="AH25" s="80"/>
-      <c r="AI25" s="80"/>
-      <c r="AJ25" s="46"/>
-      <c r="AK25" s="46"/>
-      <c r="AL25" s="46"/>
-      <c r="AM25" s="46"/>
-      <c r="AN25" s="46"/>
-      <c r="AO25" s="46"/>
-      <c r="AP25" s="46"/>
-      <c r="AQ25" s="46"/>
-      <c r="AR25" s="46"/>
-      <c r="AS25" s="46"/>
-      <c r="AT25" s="73"/>
-      <c r="AU25" s="22"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="7"/>
       <c r="AV25" s="22"/>
       <c r="AW25" s="9"/>
       <c r="AX25" s="9"/>
@@ -23960,16 +23994,16 @@
       <c r="L26" s="76"/>
       <c r="M26" s="76"/>
       <c r="N26" s="76"/>
-      <c r="O26" s="64">
-        <v>2</v>
+      <c r="O26" s="64" t="s">
+        <v>53</v>
       </c>
       <c r="P26" s="76"/>
       <c r="Q26" s="76"/>
       <c r="R26" s="65"/>
-      <c r="S26" s="56" t="s">
-        <v>67</v>
+      <c r="S26" s="56"/>
+      <c r="T26" s="9" t="s">
+        <v>56</v>
       </c>
-      <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
@@ -24209,7 +24243,9 @@
       <c r="IW26" s="1"/>
     </row>
     <row r="27" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
+      <c r="A27" s="53" t="s">
+        <v>88</v>
+      </c>
       <c r="B27" s="76"/>
       <c r="C27" s="76"/>
       <c r="D27" s="76"/>
@@ -24223,17 +24259,17 @@
       <c r="L27" s="76"/>
       <c r="M27" s="76"/>
       <c r="N27" s="76"/>
-      <c r="O27" s="64" t="s">
-        <v>53</v>
+      <c r="O27" s="66" t="s">
+        <v>54</v>
       </c>
       <c r="P27" s="76"/>
       <c r="Q27" s="76"/>
       <c r="R27" s="65"/>
       <c r="S27" s="56"/>
-      <c r="T27" s="9" t="s">
-        <v>56</v>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9" t="s">
+        <v>124</v>
       </c>
-      <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
@@ -24472,9 +24508,7 @@
       <c r="IW27" s="1"/>
     </row>
     <row r="28" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
-        <v>93</v>
-      </c>
+      <c r="A28" s="53"/>
       <c r="B28" s="76"/>
       <c r="C28" s="76"/>
       <c r="D28" s="76"/>
@@ -24488,17 +24522,15 @@
       <c r="L28" s="76"/>
       <c r="M28" s="76"/>
       <c r="N28" s="76"/>
-      <c r="O28" s="66" t="s">
-        <v>54</v>
-      </c>
+      <c r="O28" s="66"/>
       <c r="P28" s="76"/>
       <c r="Q28" s="76"/>
       <c r="R28" s="65"/>
       <c r="S28" s="56"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9" t="s">
-        <v>57</v>
+      <c r="T28" s="9" t="s">
+        <v>55</v>
       </c>
+      <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
@@ -24737,7 +24769,9 @@
       <c r="IW28" s="1"/>
     </row>
     <row r="29" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
+      <c r="A29" s="85" t="s">
+        <v>108</v>
+      </c>
       <c r="B29" s="76"/>
       <c r="C29" s="76"/>
       <c r="D29" s="76"/>
@@ -24755,10 +24789,10 @@
       <c r="P29" s="76"/>
       <c r="Q29" s="76"/>
       <c r="R29" s="65"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="9" t="s">
-        <v>55</v>
+      <c r="S29" s="56" t="s">
+        <v>114</v>
       </c>
+      <c r="T29" s="9"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
@@ -24787,7 +24821,7 @@
       <c r="AT29" s="12"/>
       <c r="AU29" s="7"/>
       <c r="AV29" s="22"/>
-      <c r="AW29" s="9"/>
+      <c r="AW29" s="8"/>
       <c r="AX29" s="9"/>
       <c r="AY29" s="9"/>
       <c r="AZ29" s="9"/>
@@ -24998,9 +25032,7 @@
       <c r="IW29" s="1"/>
     </row>
     <row r="30" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="85" t="s">
-        <v>115</v>
-      </c>
+      <c r="A30" s="85"/>
       <c r="B30" s="76"/>
       <c r="C30" s="76"/>
       <c r="D30" s="76"/>
@@ -25018,10 +25050,10 @@
       <c r="P30" s="76"/>
       <c r="Q30" s="76"/>
       <c r="R30" s="65"/>
-      <c r="S30" s="56" t="s">
-        <v>68</v>
+      <c r="S30" s="56"/>
+      <c r="T30" s="9" t="s">
+        <v>105</v>
       </c>
-      <c r="T30" s="9"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
@@ -25261,7 +25293,9 @@
       <c r="IW30" s="1"/>
     </row>
     <row r="31" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="85"/>
+      <c r="A31" s="85" t="s">
+        <v>109</v>
+      </c>
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
       <c r="D31" s="76"/>
@@ -25279,10 +25313,10 @@
       <c r="P31" s="76"/>
       <c r="Q31" s="76"/>
       <c r="R31" s="65"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="9" t="s">
-        <v>112</v>
+      <c r="S31" s="56" t="s">
+        <v>66</v>
       </c>
+      <c r="T31" s="9"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
@@ -25308,7 +25342,7 @@
       <c r="AQ31" s="12"/>
       <c r="AR31" s="12"/>
       <c r="AS31" s="12"/>
-      <c r="AT31" s="12"/>
+      <c r="AT31" s="77"/>
       <c r="AU31" s="7"/>
       <c r="AV31" s="22"/>
       <c r="AW31" s="8"/>
@@ -25522,9 +25556,7 @@
       <c r="IW31" s="1"/>
     </row>
     <row r="32" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="85" t="s">
-        <v>116</v>
-      </c>
+      <c r="A32" s="85"/>
       <c r="B32" s="76"/>
       <c r="C32" s="76"/>
       <c r="D32" s="76"/>
@@ -25538,40 +25570,40 @@
       <c r="L32" s="76"/>
       <c r="M32" s="76"/>
       <c r="N32" s="76"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="56" t="s">
-        <v>69</v>
+      <c r="O32" s="67"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="47" t="s">
+        <v>106</v>
       </c>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="12"/>
-      <c r="AK32" s="12"/>
-      <c r="AL32" s="12"/>
-      <c r="AM32" s="12"/>
-      <c r="AN32" s="12"/>
-      <c r="AO32" s="12"/>
-      <c r="AP32" s="12"/>
-      <c r="AQ32" s="12"/>
-      <c r="AR32" s="12"/>
-      <c r="AS32" s="12"/>
-      <c r="AT32" s="77"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="47"/>
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="47"/>
+      <c r="AH32" s="47"/>
+      <c r="AI32" s="47"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="51"/>
+      <c r="AL32" s="51"/>
+      <c r="AM32" s="51"/>
+      <c r="AN32" s="51"/>
+      <c r="AO32" s="51"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="51"/>
+      <c r="AR32" s="51"/>
+      <c r="AS32" s="51"/>
+      <c r="AT32" s="52"/>
       <c r="AU32" s="7"/>
       <c r="AV32" s="22"/>
       <c r="AW32" s="8"/>
@@ -25786,8 +25818,8 @@
     </row>
     <row r="33" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="85"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="76"/>
       <c r="E33" s="76"/>
       <c r="F33" s="76"/>
@@ -25799,40 +25831,42 @@
       <c r="L33" s="76"/>
       <c r="M33" s="76"/>
       <c r="N33" s="76"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="47" t="s">
-        <v>113</v>
+      <c r="O33" s="64">
+        <v>3</v>
       </c>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="47"/>
-      <c r="AC33" s="47"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="47"/>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="47"/>
-      <c r="AH33" s="47"/>
-      <c r="AI33" s="47"/>
-      <c r="AJ33" s="51"/>
-      <c r="AK33" s="51"/>
-      <c r="AL33" s="51"/>
-      <c r="AM33" s="51"/>
-      <c r="AN33" s="51"/>
-      <c r="AO33" s="51"/>
-      <c r="AP33" s="51"/>
-      <c r="AQ33" s="51"/>
-      <c r="AR33" s="51"/>
-      <c r="AS33" s="51"/>
-      <c r="AT33" s="52"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="T33" s="9"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="13"/>
+      <c r="AR33" s="13"/>
+      <c r="AS33" s="13"/>
+      <c r="AT33" s="13"/>
       <c r="AU33" s="7"/>
       <c r="AV33" s="22"/>
       <c r="AW33" s="8"/>
@@ -26060,16 +26094,16 @@
       <c r="L34" s="76"/>
       <c r="M34" s="76"/>
       <c r="N34" s="76"/>
-      <c r="O34" s="64">
-        <v>3</v>
+      <c r="O34" s="66" t="s">
+        <v>59</v>
       </c>
       <c r="P34" s="76"/>
       <c r="Q34" s="76"/>
       <c r="R34" s="65"/>
-      <c r="S34" s="56" t="s">
-        <v>65</v>
+      <c r="S34" s="56"/>
+      <c r="T34" s="9" t="s">
+        <v>57</v>
       </c>
-      <c r="T34" s="9"/>
       <c r="U34" s="23"/>
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
@@ -26324,15 +26358,15 @@
       <c r="M35" s="76"/>
       <c r="N35" s="76"/>
       <c r="O35" s="66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P35" s="76"/>
       <c r="Q35" s="76"/>
       <c r="R35" s="65"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="9" t="s">
-        <v>58</v>
+      <c r="S35" s="56" t="s">
+        <v>64</v>
       </c>
+      <c r="T35" s="9"/>
       <c r="U35" s="23"/>
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
@@ -26573,8 +26607,8 @@
     </row>
     <row r="36" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="85"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="76"/>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
@@ -26587,15 +26621,15 @@
       <c r="M36" s="76"/>
       <c r="N36" s="76"/>
       <c r="O36" s="66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P36" s="76"/>
       <c r="Q36" s="76"/>
       <c r="R36" s="65"/>
-      <c r="S36" s="56" t="s">
-        <v>66</v>
+      <c r="S36" s="22"/>
+      <c r="T36" s="9" t="s">
+        <v>58</v>
       </c>
-      <c r="T36" s="9"/>
       <c r="U36" s="23"/>
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
@@ -26850,41 +26884,41 @@
       <c r="M37" s="76"/>
       <c r="N37" s="76"/>
       <c r="O37" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="P37" s="76"/>
+      <c r="P37" s="22"/>
       <c r="Q37" s="76"/>
       <c r="R37" s="65"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="9" t="s">
-        <v>59</v>
+      <c r="S37" s="56" t="s">
+        <v>71</v>
       </c>
-      <c r="U37" s="23"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="13"/>
-      <c r="AJ37" s="13"/>
-      <c r="AK37" s="13"/>
-      <c r="AL37" s="13"/>
-      <c r="AM37" s="13"/>
-      <c r="AN37" s="13"/>
-      <c r="AO37" s="13"/>
-      <c r="AP37" s="13"/>
-      <c r="AQ37" s="13"/>
-      <c r="AR37" s="13"/>
-      <c r="AS37" s="13"/>
-      <c r="AT37" s="13"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="22"/>
+      <c r="AI37" s="22"/>
+      <c r="AJ37" s="22"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="22"/>
+      <c r="AO37" s="22"/>
+      <c r="AP37" s="22"/>
+      <c r="AQ37" s="22"/>
+      <c r="AR37" s="22"/>
+      <c r="AS37" s="22"/>
+      <c r="AT37" s="22"/>
       <c r="AU37" s="7"/>
       <c r="AV37" s="22"/>
       <c r="AW37" s="8"/>
@@ -27112,42 +27146,11 @@
       <c r="L38" s="76"/>
       <c r="M38" s="76"/>
       <c r="N38" s="76"/>
-      <c r="O38" s="66" t="s">
-        <v>64</v>
+      <c r="O38" s="66"/>
+      <c r="R38" s="65"/>
+      <c r="T38" s="2" t="s">
+        <v>115</v>
       </c>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="22"/>
-      <c r="AH38" s="22"/>
-      <c r="AI38" s="22"/>
-      <c r="AJ38" s="22"/>
-      <c r="AK38" s="22"/>
-      <c r="AL38" s="22"/>
-      <c r="AM38" s="22"/>
-      <c r="AN38" s="22"/>
-      <c r="AO38" s="22"/>
-      <c r="AP38" s="22"/>
-      <c r="AQ38" s="22"/>
-      <c r="AR38" s="22"/>
-      <c r="AS38" s="22"/>
-      <c r="AT38" s="22"/>
       <c r="AU38" s="7"/>
       <c r="AV38" s="22"/>
       <c r="AW38" s="8"/>
@@ -27381,7 +27384,7 @@
       <c r="R39" s="69"/>
       <c r="S39" s="46"/>
       <c r="T39" s="46" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="U39" s="46"/>
       <c r="V39" s="46"/>
@@ -27643,7 +27646,7 @@
       <c r="Q40" s="13"/>
       <c r="R40" s="65"/>
       <c r="S40" s="78" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
@@ -27900,14 +27903,14 @@
       <c r="M41" s="76"/>
       <c r="N41" s="81"/>
       <c r="O41" s="22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
       <c r="S41" s="78"/>
       <c r="T41" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
@@ -28163,13 +28166,13 @@
       <c r="M42" s="76"/>
       <c r="N42" s="81"/>
       <c r="O42" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P42" s="22"/>
       <c r="Q42" s="22"/>
       <c r="R42" s="22"/>
       <c r="S42" s="78" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
@@ -28431,7 +28434,7 @@
       <c r="R43" s="22"/>
       <c r="S43" s="78"/>
       <c r="T43" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="U43" s="22"/>
       <c r="V43" s="22"/>
@@ -28691,7 +28694,7 @@
       <c r="Q44" s="48"/>
       <c r="R44" s="46"/>
       <c r="S44" s="79" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T44" s="47"/>
       <c r="U44" s="47"/>
@@ -28946,15 +28949,15 @@
       <c r="K45" s="76"/>
       <c r="L45" s="76"/>
       <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
+      <c r="N45" s="81"/>
       <c r="O45" s="64">
         <v>5</v>
       </c>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
-      <c r="R45" s="65"/>
+      <c r="R45" s="22"/>
       <c r="S45" s="75" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
@@ -28969,9 +28972,9 @@
       <c r="AD45" s="13"/>
       <c r="AE45" s="13"/>
       <c r="AF45" s="13"/>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="13"/>
-      <c r="AI45" s="13"/>
+      <c r="AG45" s="23"/>
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="9"/>
       <c r="AJ45" s="13"/>
       <c r="AK45" s="13"/>
       <c r="AL45" s="13"/>
@@ -29209,16 +29212,16 @@
       <c r="K46" s="76"/>
       <c r="L46" s="76"/>
       <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
+      <c r="N46" s="81"/>
       <c r="O46" s="64" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
-      <c r="R46" s="65"/>
+      <c r="R46" s="22"/>
       <c r="S46" s="75"/>
       <c r="T46" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
@@ -29232,9 +29235,9 @@
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
       <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="13"/>
-      <c r="AI46" s="13"/>
+      <c r="AG46" s="23"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="9"/>
       <c r="AJ46" s="13"/>
       <c r="AK46" s="13"/>
       <c r="AL46" s="13"/>
@@ -29474,30 +29477,30 @@
       <c r="M47" s="76"/>
       <c r="N47" s="76"/>
       <c r="O47" s="64" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
-      <c r="R47" s="65"/>
+      <c r="R47" s="22"/>
       <c r="S47" s="75" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="13"/>
-      <c r="AG47" s="13"/>
-      <c r="AH47" s="13"/>
-      <c r="AI47" s="13"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="23"/>
+      <c r="AE47" s="23"/>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="23"/>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="9"/>
       <c r="AJ47" s="13"/>
       <c r="AK47" s="13"/>
       <c r="AL47" s="13"/>
@@ -29510,7 +29513,7 @@
       <c r="AS47" s="13"/>
       <c r="AT47" s="13"/>
       <c r="AU47" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AV47" s="22"/>
       <c r="AW47" s="8"/>
@@ -29741,26 +29744,26 @@
       <c r="O48" s="64"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
-      <c r="R48" s="65"/>
+      <c r="R48" s="22"/>
       <c r="S48" s="75" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="13"/>
-      <c r="AG48" s="13"/>
-      <c r="AH48" s="13"/>
-      <c r="AI48" s="13"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="23"/>
+      <c r="AD48" s="23"/>
+      <c r="AE48" s="23"/>
+      <c r="AF48" s="23"/>
+      <c r="AG48" s="23"/>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
       <c r="AJ48" s="13"/>
       <c r="AK48" s="13"/>
       <c r="AL48" s="13"/>
@@ -29773,7 +29776,7 @@
       <c r="AS48" s="13"/>
       <c r="AT48" s="13"/>
       <c r="AU48" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AV48" s="22"/>
       <c r="AW48" s="8"/>
@@ -30006,21 +30009,9 @@
       <c r="Q49" s="13"/>
       <c r="R49" s="65"/>
       <c r="S49" s="75" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
       <c r="AG49" s="13"/>
       <c r="AH49" s="13"/>
       <c r="AI49" s="13"/>
@@ -30036,7 +30027,7 @@
       <c r="AS49" s="13"/>
       <c r="AT49" s="13"/>
       <c r="AU49" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AV49" s="22"/>
       <c r="AW49" s="8"/>
@@ -30265,25 +30256,11 @@
       <c r="M50" s="76"/>
       <c r="N50" s="76"/>
       <c r="O50" s="64"/>
-      <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
       <c r="R50" s="65"/>
-      <c r="S50" s="75" t="s">
-        <v>86</v>
+      <c r="S50" s="2" t="s">
+        <v>119</v>
       </c>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
-      <c r="AA50" s="13"/>
-      <c r="AB50" s="13"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="13"/>
-      <c r="AE50" s="13"/>
-      <c r="AF50" s="13"/>
       <c r="AG50" s="13"/>
       <c r="AH50" s="13"/>
       <c r="AI50" s="13"/>
@@ -30298,9 +30275,7 @@
       <c r="AR50" s="13"/>
       <c r="AS50" s="13"/>
       <c r="AT50" s="13"/>
-      <c r="AU50" s="7" t="s">
-        <v>94</v>
-      </c>
+      <c r="AU50" s="7"/>
       <c r="AV50" s="22"/>
       <c r="AW50" s="8"/>
       <c r="AX50" s="9"/>
@@ -30527,42 +30502,39 @@
       <c r="L51" s="76"/>
       <c r="M51" s="76"/>
       <c r="N51" s="76"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="69"/>
-      <c r="S51" s="84" t="s">
-        <v>82</v>
+      <c r="O51" s="64"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="65"/>
+      <c r="T51" s="2" t="s">
+        <v>120</v>
       </c>
-      <c r="T51" s="48"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="48"/>
-      <c r="W51" s="48"/>
-      <c r="X51" s="48"/>
-      <c r="Y51" s="48"/>
-      <c r="Z51" s="48"/>
-      <c r="AA51" s="48"/>
-      <c r="AB51" s="48"/>
-      <c r="AC51" s="48"/>
-      <c r="AD51" s="48"/>
-      <c r="AE51" s="48"/>
-      <c r="AF51" s="48"/>
-      <c r="AG51" s="48"/>
-      <c r="AH51" s="48"/>
-      <c r="AI51" s="48"/>
-      <c r="AJ51" s="48"/>
-      <c r="AK51" s="48"/>
-      <c r="AL51" s="48"/>
-      <c r="AM51" s="48"/>
-      <c r="AN51" s="48"/>
-      <c r="AO51" s="48"/>
-      <c r="AP51" s="48"/>
-      <c r="AQ51" s="48"/>
-      <c r="AR51" s="48"/>
-      <c r="AS51" s="48"/>
-      <c r="AT51" s="49"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="13"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="13"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="13"/>
+      <c r="AI51" s="13"/>
+      <c r="AJ51" s="13"/>
+      <c r="AK51" s="13"/>
+      <c r="AL51" s="13"/>
+      <c r="AM51" s="13"/>
+      <c r="AN51" s="13"/>
+      <c r="AO51" s="13"/>
+      <c r="AP51" s="13"/>
+      <c r="AQ51" s="13"/>
+      <c r="AR51" s="13"/>
+      <c r="AS51" s="13"/>
+      <c r="AT51" s="13"/>
       <c r="AU51" s="7"/>
-      <c r="AV51" s="22"/>
       <c r="AW51" s="8"/>
       <c r="AX51" s="9"/>
       <c r="AY51" s="9"/>
@@ -30788,44 +30760,41 @@
       <c r="L52" s="76"/>
       <c r="M52" s="76"/>
       <c r="N52" s="76"/>
-      <c r="O52" s="66" t="s">
-        <v>87</v>
-      </c>
+      <c r="O52" s="64"/>
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
       <c r="R52" s="65"/>
-      <c r="S52" s="22" t="s">
-        <v>88</v>
+      <c r="U52" s="13" t="s">
+        <v>121</v>
       </c>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
-      <c r="AG52" s="22"/>
-      <c r="AH52" s="22"/>
-      <c r="AI52" s="22"/>
-      <c r="AJ52" s="12"/>
-      <c r="AK52" s="12"/>
-      <c r="AL52" s="12"/>
-      <c r="AM52" s="12"/>
-      <c r="AN52" s="12"/>
-      <c r="AO52" s="12"/>
-      <c r="AP52" s="12"/>
-      <c r="AQ52" s="12"/>
-      <c r="AR52" s="12"/>
-      <c r="AS52" s="12"/>
-      <c r="AT52" s="83"/>
-      <c r="AU52" s="7"/>
-      <c r="AV52" s="22"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="13"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="13"/>
+      <c r="AI52" s="13"/>
+      <c r="AJ52" s="13"/>
+      <c r="AK52" s="13"/>
+      <c r="AL52" s="13"/>
+      <c r="AM52" s="13"/>
+      <c r="AN52" s="13"/>
+      <c r="AO52" s="13"/>
+      <c r="AP52" s="13"/>
+      <c r="AQ52" s="13"/>
+      <c r="AR52" s="13"/>
+      <c r="AS52" s="13"/>
+      <c r="AT52" s="13"/>
+      <c r="AU52" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="AW52" s="8"/>
       <c r="AX52" s="9"/>
       <c r="AY52" s="9"/>
@@ -31051,40 +31020,40 @@
       <c r="L53" s="76"/>
       <c r="M53" s="76"/>
       <c r="N53" s="76"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="65"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22" t="s">
-        <v>89</v>
+      <c r="O53" s="67"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="69"/>
+      <c r="S53" s="84" t="s">
+        <v>123</v>
       </c>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="22"/>
-      <c r="AD53" s="22"/>
-      <c r="AE53" s="22"/>
-      <c r="AF53" s="22"/>
-      <c r="AG53" s="22"/>
-      <c r="AH53" s="22"/>
-      <c r="AI53" s="22"/>
-      <c r="AJ53" s="12"/>
-      <c r="AK53" s="12"/>
-      <c r="AL53" s="12"/>
-      <c r="AM53" s="12"/>
-      <c r="AN53" s="12"/>
-      <c r="AO53" s="12"/>
-      <c r="AP53" s="12"/>
-      <c r="AQ53" s="12"/>
-      <c r="AR53" s="12"/>
-      <c r="AS53" s="12"/>
-      <c r="AT53" s="12"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="48"/>
+      <c r="W53" s="48"/>
+      <c r="X53" s="48"/>
+      <c r="Y53" s="48"/>
+      <c r="Z53" s="48"/>
+      <c r="AA53" s="48"/>
+      <c r="AB53" s="48"/>
+      <c r="AC53" s="48"/>
+      <c r="AD53" s="48"/>
+      <c r="AE53" s="48"/>
+      <c r="AF53" s="48"/>
+      <c r="AG53" s="48"/>
+      <c r="AH53" s="48"/>
+      <c r="AI53" s="48"/>
+      <c r="AJ53" s="48"/>
+      <c r="AK53" s="48"/>
+      <c r="AL53" s="48"/>
+      <c r="AM53" s="48"/>
+      <c r="AN53" s="48"/>
+      <c r="AO53" s="48"/>
+      <c r="AP53" s="48"/>
+      <c r="AQ53" s="48"/>
+      <c r="AR53" s="48"/>
+      <c r="AS53" s="48"/>
+      <c r="AT53" s="49"/>
       <c r="AU53" s="7"/>
       <c r="AV53" s="22"/>
       <c r="AW53" s="8"/>
@@ -31298,66 +31267,70 @@
       <c r="IW53" s="1"/>
     </row>
     <row r="54" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="86"/>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="87"/>
-      <c r="L54" s="87"/>
-      <c r="M54" s="87"/>
-      <c r="N54" s="87"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="89"/>
-      <c r="S54" s="60"/>
-      <c r="T54" s="60"/>
-      <c r="U54" s="60"/>
-      <c r="V54" s="60"/>
-      <c r="W54" s="60"/>
-      <c r="X54" s="60"/>
-      <c r="Y54" s="60"/>
-      <c r="Z54" s="60"/>
-      <c r="AA54" s="60"/>
-      <c r="AB54" s="60"/>
-      <c r="AC54" s="60"/>
-      <c r="AD54" s="60"/>
-      <c r="AE54" s="60"/>
-      <c r="AF54" s="60"/>
-      <c r="AG54" s="60"/>
-      <c r="AH54" s="60"/>
-      <c r="AI54" s="60"/>
-      <c r="AJ54" s="90"/>
-      <c r="AK54" s="90"/>
-      <c r="AL54" s="90"/>
-      <c r="AM54" s="90"/>
-      <c r="AN54" s="90"/>
-      <c r="AO54" s="90"/>
-      <c r="AP54" s="90"/>
-      <c r="AQ54" s="90"/>
-      <c r="AR54" s="90"/>
-      <c r="AS54" s="90"/>
-      <c r="AT54" s="90"/>
-      <c r="AU54" s="58"/>
-      <c r="AV54" s="60"/>
-      <c r="AW54" s="61"/>
-      <c r="AX54" s="57"/>
-      <c r="AY54" s="57"/>
-      <c r="AZ54" s="57"/>
-      <c r="BA54" s="57"/>
-      <c r="BB54" s="57"/>
-      <c r="BC54" s="57"/>
-      <c r="BD54" s="57"/>
-      <c r="BE54" s="57"/>
-      <c r="BF54" s="57"/>
-      <c r="BG54" s="57"/>
-      <c r="BH54" s="62"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="65"/>
+      <c r="S54" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="22"/>
+      <c r="X54" s="22"/>
+      <c r="Y54" s="22"/>
+      <c r="Z54" s="22"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="22"/>
+      <c r="AC54" s="22"/>
+      <c r="AD54" s="22"/>
+      <c r="AE54" s="22"/>
+      <c r="AF54" s="22"/>
+      <c r="AG54" s="22"/>
+      <c r="AH54" s="22"/>
+      <c r="AI54" s="22"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+      <c r="AT54" s="83"/>
+      <c r="AU54" s="7"/>
+      <c r="AV54" s="22"/>
+      <c r="AW54" s="8"/>
+      <c r="AX54" s="9"/>
+      <c r="AY54" s="9"/>
+      <c r="AZ54" s="9"/>
+      <c r="BA54" s="9"/>
+      <c r="BB54" s="9"/>
+      <c r="BC54" s="9"/>
+      <c r="BD54" s="9"/>
+      <c r="BE54" s="9"/>
+      <c r="BF54" s="9"/>
+      <c r="BG54" s="9"/>
+      <c r="BH54" s="41"/>
       <c r="BI54" s="1"/>
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
@@ -31556,18 +31529,580 @@
       <c r="IV54" s="1"/>
       <c r="IW54" s="1"/>
     </row>
+    <row r="55" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="85"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="66"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="65"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="22"/>
+      <c r="AI55" s="22"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
+      <c r="AO55" s="12"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="12"/>
+      <c r="AR55" s="12"/>
+      <c r="AS55" s="12"/>
+      <c r="AT55" s="12"/>
+      <c r="AU55" s="7"/>
+      <c r="AV55" s="22"/>
+      <c r="AW55" s="8"/>
+      <c r="AX55" s="9"/>
+      <c r="AY55" s="9"/>
+      <c r="AZ55" s="9"/>
+      <c r="BA55" s="9"/>
+      <c r="BB55" s="9"/>
+      <c r="BC55" s="9"/>
+      <c r="BD55" s="9"/>
+      <c r="BE55" s="9"/>
+      <c r="BF55" s="9"/>
+      <c r="BG55" s="9"/>
+      <c r="BH55" s="41"/>
+      <c r="BI55" s="1"/>
+      <c r="BJ55" s="1"/>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="1"/>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="1"/>
+      <c r="BP55" s="1"/>
+      <c r="BQ55" s="1"/>
+      <c r="BR55" s="1"/>
+      <c r="BS55" s="1"/>
+      <c r="BT55" s="1"/>
+      <c r="BU55" s="1"/>
+      <c r="BV55" s="1"/>
+      <c r="BW55" s="1"/>
+      <c r="BX55" s="1"/>
+      <c r="BY55" s="1"/>
+      <c r="BZ55" s="1"/>
+      <c r="CA55" s="1"/>
+      <c r="CB55" s="1"/>
+      <c r="CC55" s="1"/>
+      <c r="CD55" s="1"/>
+      <c r="CE55" s="1"/>
+      <c r="CF55" s="1"/>
+      <c r="CG55" s="1"/>
+      <c r="CH55" s="1"/>
+      <c r="CI55" s="1"/>
+      <c r="CJ55" s="1"/>
+      <c r="CK55" s="1"/>
+      <c r="CL55" s="1"/>
+      <c r="CM55" s="1"/>
+      <c r="CN55" s="1"/>
+      <c r="CO55" s="1"/>
+      <c r="CP55" s="1"/>
+      <c r="CQ55" s="1"/>
+      <c r="CR55" s="1"/>
+      <c r="CS55" s="1"/>
+      <c r="CT55" s="1"/>
+      <c r="CU55" s="1"/>
+      <c r="CV55" s="1"/>
+      <c r="CW55" s="1"/>
+      <c r="CX55" s="1"/>
+      <c r="CY55" s="1"/>
+      <c r="CZ55" s="1"/>
+      <c r="DA55" s="1"/>
+      <c r="DB55" s="1"/>
+      <c r="DC55" s="1"/>
+      <c r="DD55" s="1"/>
+      <c r="DE55" s="1"/>
+      <c r="DF55" s="1"/>
+      <c r="DG55" s="1"/>
+      <c r="DH55" s="1"/>
+      <c r="DI55" s="1"/>
+      <c r="DJ55" s="1"/>
+      <c r="DK55" s="1"/>
+      <c r="DL55" s="1"/>
+      <c r="DM55" s="1"/>
+      <c r="DN55" s="1"/>
+      <c r="DO55" s="1"/>
+      <c r="DP55" s="1"/>
+      <c r="DQ55" s="1"/>
+      <c r="DR55" s="1"/>
+      <c r="DS55" s="1"/>
+      <c r="DT55" s="1"/>
+      <c r="DU55" s="1"/>
+      <c r="DV55" s="1"/>
+      <c r="DW55" s="1"/>
+      <c r="DX55" s="1"/>
+      <c r="DY55" s="1"/>
+      <c r="DZ55" s="1"/>
+      <c r="EA55" s="1"/>
+      <c r="EB55" s="1"/>
+      <c r="EC55" s="1"/>
+      <c r="ED55" s="1"/>
+      <c r="EE55" s="1"/>
+      <c r="EF55" s="1"/>
+      <c r="EG55" s="1"/>
+      <c r="EH55" s="1"/>
+      <c r="EI55" s="1"/>
+      <c r="EJ55" s="1"/>
+      <c r="EK55" s="1"/>
+      <c r="EL55" s="1"/>
+      <c r="EM55" s="1"/>
+      <c r="EN55" s="1"/>
+      <c r="EO55" s="1"/>
+      <c r="EP55" s="1"/>
+      <c r="EQ55" s="1"/>
+      <c r="ER55" s="1"/>
+      <c r="ES55" s="1"/>
+      <c r="ET55" s="1"/>
+      <c r="EU55" s="1"/>
+      <c r="EV55" s="1"/>
+      <c r="EW55" s="1"/>
+      <c r="EX55" s="1"/>
+      <c r="EY55" s="1"/>
+      <c r="EZ55" s="1"/>
+      <c r="FA55" s="1"/>
+      <c r="FB55" s="1"/>
+      <c r="FC55" s="1"/>
+      <c r="FD55" s="1"/>
+      <c r="FE55" s="1"/>
+      <c r="FF55" s="1"/>
+      <c r="FG55" s="1"/>
+      <c r="FH55" s="1"/>
+      <c r="FI55" s="1"/>
+      <c r="FJ55" s="1"/>
+      <c r="FK55" s="1"/>
+      <c r="FL55" s="1"/>
+      <c r="FM55" s="1"/>
+      <c r="FN55" s="1"/>
+      <c r="FO55" s="1"/>
+      <c r="FP55" s="1"/>
+      <c r="FQ55" s="1"/>
+      <c r="FR55" s="1"/>
+      <c r="FS55" s="1"/>
+      <c r="FT55" s="1"/>
+      <c r="FU55" s="1"/>
+      <c r="FV55" s="1"/>
+      <c r="FW55" s="1"/>
+      <c r="FX55" s="1"/>
+      <c r="FY55" s="1"/>
+      <c r="FZ55" s="1"/>
+      <c r="GA55" s="1"/>
+      <c r="GB55" s="1"/>
+      <c r="GC55" s="1"/>
+      <c r="GD55" s="1"/>
+      <c r="GE55" s="1"/>
+      <c r="GF55" s="1"/>
+      <c r="GG55" s="1"/>
+      <c r="GH55" s="1"/>
+      <c r="GI55" s="1"/>
+      <c r="GJ55" s="1"/>
+      <c r="GK55" s="1"/>
+      <c r="GL55" s="1"/>
+      <c r="GM55" s="1"/>
+      <c r="GN55" s="1"/>
+      <c r="GO55" s="1"/>
+      <c r="GP55" s="1"/>
+      <c r="GQ55" s="1"/>
+      <c r="GR55" s="1"/>
+      <c r="GS55" s="1"/>
+      <c r="GT55" s="1"/>
+      <c r="GU55" s="1"/>
+      <c r="GV55" s="1"/>
+      <c r="GW55" s="1"/>
+      <c r="GX55" s="1"/>
+      <c r="GY55" s="1"/>
+      <c r="GZ55" s="1"/>
+      <c r="HA55" s="1"/>
+      <c r="HB55" s="1"/>
+      <c r="HC55" s="1"/>
+      <c r="HD55" s="1"/>
+      <c r="HE55" s="1"/>
+      <c r="HF55" s="1"/>
+      <c r="HG55" s="1"/>
+      <c r="HH55" s="1"/>
+      <c r="HI55" s="1"/>
+      <c r="HJ55" s="1"/>
+      <c r="HK55" s="1"/>
+      <c r="HL55" s="1"/>
+      <c r="HM55" s="1"/>
+      <c r="HN55" s="1"/>
+      <c r="HO55" s="1"/>
+      <c r="HP55" s="1"/>
+      <c r="HQ55" s="1"/>
+      <c r="HR55" s="1"/>
+      <c r="HS55" s="1"/>
+      <c r="HT55" s="1"/>
+      <c r="HU55" s="1"/>
+      <c r="HV55" s="1"/>
+      <c r="HW55" s="1"/>
+      <c r="HX55" s="1"/>
+      <c r="HY55" s="1"/>
+      <c r="HZ55" s="1"/>
+      <c r="IA55" s="1"/>
+      <c r="IB55" s="1"/>
+      <c r="IC55" s="1"/>
+      <c r="ID55" s="1"/>
+      <c r="IE55" s="1"/>
+      <c r="IF55" s="1"/>
+      <c r="IG55" s="1"/>
+      <c r="IH55" s="1"/>
+      <c r="II55" s="1"/>
+      <c r="IJ55" s="1"/>
+      <c r="IK55" s="1"/>
+      <c r="IL55" s="1"/>
+      <c r="IM55" s="1"/>
+      <c r="IN55" s="1"/>
+      <c r="IO55" s="1"/>
+      <c r="IP55" s="1"/>
+      <c r="IQ55" s="1"/>
+      <c r="IR55" s="1"/>
+      <c r="IS55" s="1"/>
+      <c r="IT55" s="1"/>
+      <c r="IU55" s="1"/>
+      <c r="IV55" s="1"/>
+      <c r="IW55" s="1"/>
+    </row>
+    <row r="56" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="86"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="89"/>
+      <c r="S56" s="60"/>
+      <c r="T56" s="60"/>
+      <c r="U56" s="60"/>
+      <c r="V56" s="60"/>
+      <c r="W56" s="60"/>
+      <c r="X56" s="60"/>
+      <c r="Y56" s="60"/>
+      <c r="Z56" s="60"/>
+      <c r="AA56" s="60"/>
+      <c r="AB56" s="60"/>
+      <c r="AC56" s="60"/>
+      <c r="AD56" s="60"/>
+      <c r="AE56" s="60"/>
+      <c r="AF56" s="60"/>
+      <c r="AG56" s="60"/>
+      <c r="AH56" s="60"/>
+      <c r="AI56" s="60"/>
+      <c r="AJ56" s="90"/>
+      <c r="AK56" s="90"/>
+      <c r="AL56" s="90"/>
+      <c r="AM56" s="90"/>
+      <c r="AN56" s="90"/>
+      <c r="AO56" s="90"/>
+      <c r="AP56" s="90"/>
+      <c r="AQ56" s="90"/>
+      <c r="AR56" s="90"/>
+      <c r="AS56" s="90"/>
+      <c r="AT56" s="90"/>
+      <c r="AU56" s="58"/>
+      <c r="AV56" s="60"/>
+      <c r="AW56" s="61"/>
+      <c r="AX56" s="57"/>
+      <c r="AY56" s="57"/>
+      <c r="AZ56" s="57"/>
+      <c r="BA56" s="57"/>
+      <c r="BB56" s="57"/>
+      <c r="BC56" s="57"/>
+      <c r="BD56" s="57"/>
+      <c r="BE56" s="57"/>
+      <c r="BF56" s="57"/>
+      <c r="BG56" s="57"/>
+      <c r="BH56" s="62"/>
+      <c r="BI56" s="1"/>
+      <c r="BJ56" s="1"/>
+      <c r="BK56" s="1"/>
+      <c r="BL56" s="1"/>
+      <c r="BM56" s="1"/>
+      <c r="BN56" s="1"/>
+      <c r="BO56" s="1"/>
+      <c r="BP56" s="1"/>
+      <c r="BQ56" s="1"/>
+      <c r="BR56" s="1"/>
+      <c r="BS56" s="1"/>
+      <c r="BT56" s="1"/>
+      <c r="BU56" s="1"/>
+      <c r="BV56" s="1"/>
+      <c r="BW56" s="1"/>
+      <c r="BX56" s="1"/>
+      <c r="BY56" s="1"/>
+      <c r="BZ56" s="1"/>
+      <c r="CA56" s="1"/>
+      <c r="CB56" s="1"/>
+      <c r="CC56" s="1"/>
+      <c r="CD56" s="1"/>
+      <c r="CE56" s="1"/>
+      <c r="CF56" s="1"/>
+      <c r="CG56" s="1"/>
+      <c r="CH56" s="1"/>
+      <c r="CI56" s="1"/>
+      <c r="CJ56" s="1"/>
+      <c r="CK56" s="1"/>
+      <c r="CL56" s="1"/>
+      <c r="CM56" s="1"/>
+      <c r="CN56" s="1"/>
+      <c r="CO56" s="1"/>
+      <c r="CP56" s="1"/>
+      <c r="CQ56" s="1"/>
+      <c r="CR56" s="1"/>
+      <c r="CS56" s="1"/>
+      <c r="CT56" s="1"/>
+      <c r="CU56" s="1"/>
+      <c r="CV56" s="1"/>
+      <c r="CW56" s="1"/>
+      <c r="CX56" s="1"/>
+      <c r="CY56" s="1"/>
+      <c r="CZ56" s="1"/>
+      <c r="DA56" s="1"/>
+      <c r="DB56" s="1"/>
+      <c r="DC56" s="1"/>
+      <c r="DD56" s="1"/>
+      <c r="DE56" s="1"/>
+      <c r="DF56" s="1"/>
+      <c r="DG56" s="1"/>
+      <c r="DH56" s="1"/>
+      <c r="DI56" s="1"/>
+      <c r="DJ56" s="1"/>
+      <c r="DK56" s="1"/>
+      <c r="DL56" s="1"/>
+      <c r="DM56" s="1"/>
+      <c r="DN56" s="1"/>
+      <c r="DO56" s="1"/>
+      <c r="DP56" s="1"/>
+      <c r="DQ56" s="1"/>
+      <c r="DR56" s="1"/>
+      <c r="DS56" s="1"/>
+      <c r="DT56" s="1"/>
+      <c r="DU56" s="1"/>
+      <c r="DV56" s="1"/>
+      <c r="DW56" s="1"/>
+      <c r="DX56" s="1"/>
+      <c r="DY56" s="1"/>
+      <c r="DZ56" s="1"/>
+      <c r="EA56" s="1"/>
+      <c r="EB56" s="1"/>
+      <c r="EC56" s="1"/>
+      <c r="ED56" s="1"/>
+      <c r="EE56" s="1"/>
+      <c r="EF56" s="1"/>
+      <c r="EG56" s="1"/>
+      <c r="EH56" s="1"/>
+      <c r="EI56" s="1"/>
+      <c r="EJ56" s="1"/>
+      <c r="EK56" s="1"/>
+      <c r="EL56" s="1"/>
+      <c r="EM56" s="1"/>
+      <c r="EN56" s="1"/>
+      <c r="EO56" s="1"/>
+      <c r="EP56" s="1"/>
+      <c r="EQ56" s="1"/>
+      <c r="ER56" s="1"/>
+      <c r="ES56" s="1"/>
+      <c r="ET56" s="1"/>
+      <c r="EU56" s="1"/>
+      <c r="EV56" s="1"/>
+      <c r="EW56" s="1"/>
+      <c r="EX56" s="1"/>
+      <c r="EY56" s="1"/>
+      <c r="EZ56" s="1"/>
+      <c r="FA56" s="1"/>
+      <c r="FB56" s="1"/>
+      <c r="FC56" s="1"/>
+      <c r="FD56" s="1"/>
+      <c r="FE56" s="1"/>
+      <c r="FF56" s="1"/>
+      <c r="FG56" s="1"/>
+      <c r="FH56" s="1"/>
+      <c r="FI56" s="1"/>
+      <c r="FJ56" s="1"/>
+      <c r="FK56" s="1"/>
+      <c r="FL56" s="1"/>
+      <c r="FM56" s="1"/>
+      <c r="FN56" s="1"/>
+      <c r="FO56" s="1"/>
+      <c r="FP56" s="1"/>
+      <c r="FQ56" s="1"/>
+      <c r="FR56" s="1"/>
+      <c r="FS56" s="1"/>
+      <c r="FT56" s="1"/>
+      <c r="FU56" s="1"/>
+      <c r="FV56" s="1"/>
+      <c r="FW56" s="1"/>
+      <c r="FX56" s="1"/>
+      <c r="FY56" s="1"/>
+      <c r="FZ56" s="1"/>
+      <c r="GA56" s="1"/>
+      <c r="GB56" s="1"/>
+      <c r="GC56" s="1"/>
+      <c r="GD56" s="1"/>
+      <c r="GE56" s="1"/>
+      <c r="GF56" s="1"/>
+      <c r="GG56" s="1"/>
+      <c r="GH56" s="1"/>
+      <c r="GI56" s="1"/>
+      <c r="GJ56" s="1"/>
+      <c r="GK56" s="1"/>
+      <c r="GL56" s="1"/>
+      <c r="GM56" s="1"/>
+      <c r="GN56" s="1"/>
+      <c r="GO56" s="1"/>
+      <c r="GP56" s="1"/>
+      <c r="GQ56" s="1"/>
+      <c r="GR56" s="1"/>
+      <c r="GS56" s="1"/>
+      <c r="GT56" s="1"/>
+      <c r="GU56" s="1"/>
+      <c r="GV56" s="1"/>
+      <c r="GW56" s="1"/>
+      <c r="GX56" s="1"/>
+      <c r="GY56" s="1"/>
+      <c r="GZ56" s="1"/>
+      <c r="HA56" s="1"/>
+      <c r="HB56" s="1"/>
+      <c r="HC56" s="1"/>
+      <c r="HD56" s="1"/>
+      <c r="HE56" s="1"/>
+      <c r="HF56" s="1"/>
+      <c r="HG56" s="1"/>
+      <c r="HH56" s="1"/>
+      <c r="HI56" s="1"/>
+      <c r="HJ56" s="1"/>
+      <c r="HK56" s="1"/>
+      <c r="HL56" s="1"/>
+      <c r="HM56" s="1"/>
+      <c r="HN56" s="1"/>
+      <c r="HO56" s="1"/>
+      <c r="HP56" s="1"/>
+      <c r="HQ56" s="1"/>
+      <c r="HR56" s="1"/>
+      <c r="HS56" s="1"/>
+      <c r="HT56" s="1"/>
+      <c r="HU56" s="1"/>
+      <c r="HV56" s="1"/>
+      <c r="HW56" s="1"/>
+      <c r="HX56" s="1"/>
+      <c r="HY56" s="1"/>
+      <c r="HZ56" s="1"/>
+      <c r="IA56" s="1"/>
+      <c r="IB56" s="1"/>
+      <c r="IC56" s="1"/>
+      <c r="ID56" s="1"/>
+      <c r="IE56" s="1"/>
+      <c r="IF56" s="1"/>
+      <c r="IG56" s="1"/>
+      <c r="IH56" s="1"/>
+      <c r="II56" s="1"/>
+      <c r="IJ56" s="1"/>
+      <c r="IK56" s="1"/>
+      <c r="IL56" s="1"/>
+      <c r="IM56" s="1"/>
+      <c r="IN56" s="1"/>
+      <c r="IO56" s="1"/>
+      <c r="IP56" s="1"/>
+      <c r="IQ56" s="1"/>
+      <c r="IR56" s="1"/>
+      <c r="IS56" s="1"/>
+      <c r="IT56" s="1"/>
+      <c r="IU56" s="1"/>
+      <c r="IV56" s="1"/>
+      <c r="IW56" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="AC10:BH10"/>
+  <mergeCells count="77">
+    <mergeCell ref="D15:N15"/>
+    <mergeCell ref="O15:AB15"/>
+    <mergeCell ref="AC15:BH15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="O16:AB16"/>
+    <mergeCell ref="AC16:BH16"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:N11"/>
     <mergeCell ref="O11:AB11"/>
     <mergeCell ref="AC11:BH11"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AN2"/>
-    <mergeCell ref="AO2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:N12"/>
+    <mergeCell ref="O12:AB12"/>
+    <mergeCell ref="AC12:BH12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:N13"/>
+    <mergeCell ref="O13:AB13"/>
+    <mergeCell ref="AC13:BH13"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:AT21"/>
+    <mergeCell ref="AU21:BH21"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:N17"/>
+    <mergeCell ref="O17:AB17"/>
+    <mergeCell ref="AC17:BH17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:N14"/>
+    <mergeCell ref="O14:AB14"/>
+    <mergeCell ref="AC14:BH14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="O9:AB9"/>
+    <mergeCell ref="AC9:BH9"/>
+    <mergeCell ref="A21:N21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:N18"/>
+    <mergeCell ref="O18:AB18"/>
+    <mergeCell ref="AC18:BH18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:N19"/>
+    <mergeCell ref="O19:AB19"/>
+    <mergeCell ref="AC19:BH19"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="O8:AB8"/>
+    <mergeCell ref="AC8:BH8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="O7:AB7"/>
+    <mergeCell ref="AC7:BH7"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BH4"/>
     <mergeCell ref="A5:F5"/>
@@ -31584,76 +32119,45 @@
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BH1"/>
     <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:N8"/>
-    <mergeCell ref="O8:AB8"/>
-    <mergeCell ref="AC8:BH8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:N7"/>
-    <mergeCell ref="O7:AB7"/>
-    <mergeCell ref="AC7:BH7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:N9"/>
-    <mergeCell ref="O9:AB9"/>
-    <mergeCell ref="AC9:BH9"/>
-    <mergeCell ref="A22:N22"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:N19"/>
-    <mergeCell ref="O19:AB19"/>
-    <mergeCell ref="AC19:BH19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:N20"/>
-    <mergeCell ref="O20:AB20"/>
-    <mergeCell ref="AC20:BH20"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AN2"/>
+    <mergeCell ref="AO2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:N10"/>
     <mergeCell ref="O10:AB10"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:N14"/>
-    <mergeCell ref="O14:AB14"/>
-    <mergeCell ref="AC14:BH14"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:AT22"/>
-    <mergeCell ref="AU22:BH22"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:N12"/>
-    <mergeCell ref="O12:AB12"/>
-    <mergeCell ref="AC12:BH12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:N13"/>
-    <mergeCell ref="O13:AB13"/>
-    <mergeCell ref="AC13:BH13"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:N18"/>
-    <mergeCell ref="O18:AB18"/>
-    <mergeCell ref="AC18:BH18"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:N15"/>
-    <mergeCell ref="O15:AB15"/>
-    <mergeCell ref="AC15:BH15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:N16"/>
-    <mergeCell ref="O16:AB16"/>
-    <mergeCell ref="AC16:BH16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:N17"/>
-    <mergeCell ref="O17:AB17"/>
-    <mergeCell ref="AC17:BH17"/>
+    <mergeCell ref="AC10:BH10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:C20" xr:uid="{82C52891-651E-449D-B38A-2D733DAD6D7E}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:C19" xr:uid="{82C52891-651E-449D-B38A-2D733DAD6D7E}">
       <formula1>"引数,戻り値,例外,変数"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59015748031496063" right="0.59015748031496063" top="0.8271653543307087" bottom="1.2208661417322835" header="0.78740157480314954" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="54" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -31785,22 +32289,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E88503-2BF5-4213-82B7-01925F2C7A20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC473E1-630C-47C0-8277-41F4549C3C72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27446016-DB91-4EAC-B347-E10B099FE93C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31816,21 +32322,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC473E1-630C-47C0-8277-41F4549C3C72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E88503-2BF5-4213-82B7-01925F2C7A20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>